--- a/status/status_qt_containers.xlsx
+++ b/status/status_qt_containers.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23613"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="21405"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1020" yWindow="40" windowWidth="16800" windowHeight="16400" tabRatio="500" firstSheet="4" activeTab="6"/>
+    <workbookView xWindow="320" yWindow="0" windowWidth="23580" windowHeight="25160" tabRatio="500" firstSheet="4" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="QList" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1343" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1409" uniqueCount="313">
   <si>
     <t>QList()</t>
   </si>
@@ -961,6 +961,12 @@
   </si>
   <si>
     <t>C++11</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>problem with Qlist</t>
   </si>
 </sst>
 </file>
@@ -1079,8 +1085,88 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="65">
+  <cellStyleXfs count="145">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1174,6 +1260,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1195,17 +1290,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="65">
+  <cellStyles count="145">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1238,6 +1324,46 @@
     <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="144" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1270,6 +1396,46 @@
     <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="135" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="139" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="141" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="143" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1615,23 +1781,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="F1" s="11" t="s">
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="F1" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="K1" s="12" t="s">
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="K1" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="4" t="s">
@@ -1646,10 +1812,10 @@
       <c r="D2" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="G2" s="14"/>
+      <c r="G2" s="17"/>
       <c r="H2" s="4" t="s">
         <v>128</v>
       </c>
@@ -2726,22 +2892,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="16"/>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="E1" s="11" t="s">
+      <c r="A1" s="19"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="E1" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
       <c r="L1" s="7"/>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="17"/>
-      <c r="B2" s="17"/>
+      <c r="A2" s="20"/>
+      <c r="B2" s="20"/>
       <c r="C2" s="6"/>
       <c r="E2" s="4" t="s">
         <v>126</v>
@@ -2952,27 +3118,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="E1" s="11" t="s">
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="E1" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="I1" s="11" t="s">
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="I1" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="B2" s="14"/>
+      <c r="B2" s="17"/>
       <c r="C2" s="4" t="s">
         <v>128</v>
       </c>
@@ -3744,27 +3910,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="E1" s="11" t="s">
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="E1" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="I1" s="11" t="s">
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="I1" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="18" t="s">
         <v>130</v>
       </c>
-      <c r="B2" s="15"/>
+      <c r="B2" s="18"/>
       <c r="C2" s="4" t="s">
         <v>128</v>
       </c>
@@ -5870,22 +6036,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="16"/>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="E1" s="11" t="s">
+      <c r="A1" s="19"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="E1" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
       <c r="L1" s="7"/>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="17"/>
-      <c r="B2" s="17"/>
+      <c r="A2" s="20"/>
+      <c r="B2" s="20"/>
       <c r="C2" s="6"/>
       <c r="E2" s="4" t="s">
         <v>126</v>
@@ -5909,7 +6075,7 @@
       <c r="F3" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="G3" s="18" t="s">
+      <c r="G3" s="11" t="s">
         <v>101</v>
       </c>
       <c r="I3" s="7"/>
@@ -5925,7 +6091,7 @@
         <v>170</v>
       </c>
       <c r="F4" s="2"/>
-      <c r="G4" s="18" t="s">
+      <c r="G4" s="11" t="s">
         <v>101</v>
       </c>
       <c r="I4" s="7"/>
@@ -5943,7 +6109,7 @@
       <c r="F5" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="G5" s="18" t="s">
+      <c r="G5" s="11" t="s">
         <v>101</v>
       </c>
       <c r="I5" s="7"/>
@@ -5958,7 +6124,7 @@
       <c r="F6" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="G6" s="18" t="s">
+      <c r="G6" s="11" t="s">
         <v>101</v>
       </c>
       <c r="I6" s="7"/>
@@ -5973,7 +6139,7 @@
       <c r="F7" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="G7" s="18" t="s">
+      <c r="G7" s="11" t="s">
         <v>101</v>
       </c>
       <c r="I7" s="7"/>
@@ -5988,7 +6154,7 @@
       <c r="F8" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="G8" s="18" t="s">
+      <c r="G8" s="11" t="s">
         <v>101</v>
       </c>
       <c r="I8" s="7"/>
@@ -6003,7 +6169,7 @@
       <c r="F9" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="G9" s="18" t="s">
+      <c r="G9" s="11" t="s">
         <v>101</v>
       </c>
       <c r="I9" s="7"/>
@@ -6015,7 +6181,7 @@
       <c r="F12" s="8" t="s">
         <v>308</v>
       </c>
-      <c r="G12" s="19" t="s">
+      <c r="G12" s="12" t="s">
         <v>101</v>
       </c>
     </row>
@@ -6050,22 +6216,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="16"/>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="E1" s="11" t="s">
+      <c r="A1" s="19"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="E1" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
       <c r="L1" s="7"/>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="17"/>
-      <c r="B2" s="17"/>
+      <c r="A2" s="20"/>
+      <c r="B2" s="20"/>
       <c r="C2" s="6"/>
       <c r="E2" s="4" t="s">
         <v>126</v>
@@ -6233,27 +6399,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="E1" s="11" t="s">
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="E1" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="I1" s="11" t="s">
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="I1" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="18" t="s">
         <v>130</v>
       </c>
-      <c r="B2" s="15"/>
+      <c r="B2" s="18"/>
       <c r="C2" s="4" t="s">
         <v>128</v>
       </c>
@@ -6667,7 +6833,7 @@
       <c r="F28" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="G28" s="20" t="s">
+      <c r="G28" s="13" t="s">
         <v>101</v>
       </c>
     </row>
@@ -6689,7 +6855,7 @@
       <c r="F30" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="G30" s="20" t="s">
+      <c r="G30" s="13" t="s">
         <v>101</v>
       </c>
     </row>
@@ -6711,7 +6877,7 @@
       <c r="F32" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="G32" s="20" t="s">
+      <c r="G32" s="13" t="s">
         <v>101</v>
       </c>
     </row>
@@ -6722,7 +6888,7 @@
       <c r="F33" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="G33" s="20" t="s">
+      <c r="G33" s="13" t="s">
         <v>101</v>
       </c>
     </row>
@@ -6733,7 +6899,7 @@
       <c r="F34" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="G34" s="20" t="s">
+      <c r="G34" s="13" t="s">
         <v>101</v>
       </c>
     </row>
@@ -6744,7 +6910,7 @@
       <c r="F35" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="G35" s="20" t="s">
+      <c r="G35" s="13" t="s">
         <v>101</v>
       </c>
     </row>
@@ -6755,7 +6921,7 @@
       <c r="F36" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="G36" s="20" t="s">
+      <c r="G36" s="13" t="s">
         <v>101</v>
       </c>
     </row>
@@ -6766,7 +6932,7 @@
       <c r="F37" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="G37" s="20" t="s">
+      <c r="G37" s="13" t="s">
         <v>101</v>
       </c>
     </row>
@@ -6777,7 +6943,7 @@
       <c r="F38" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="G38" s="20" t="s">
+      <c r="G38" s="13" t="s">
         <v>101</v>
       </c>
     </row>
@@ -6788,7 +6954,7 @@
       <c r="F39" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="G39" s="20" t="s">
+      <c r="G39" s="13" t="s">
         <v>101</v>
       </c>
     </row>
@@ -6799,7 +6965,7 @@
       <c r="F40" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="G40" s="20" t="s">
+      <c r="G40" s="13" t="s">
         <v>101</v>
       </c>
     </row>
@@ -6810,7 +6976,7 @@
       <c r="F41" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="G41" s="20" t="s">
+      <c r="G41" s="13" t="s">
         <v>101</v>
       </c>
     </row>
@@ -6821,7 +6987,7 @@
       <c r="F42" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="G42" s="20" t="s">
+      <c r="G42" s="13" t="s">
         <v>101</v>
       </c>
     </row>
@@ -6832,7 +6998,7 @@
       <c r="F43" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="G43" s="20" t="s">
+      <c r="G43" s="13" t="s">
         <v>101</v>
       </c>
     </row>
@@ -6843,7 +7009,7 @@
       <c r="F44" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="G44" s="20" t="s">
+      <c r="G44" s="13" t="s">
         <v>101</v>
       </c>
     </row>
@@ -6854,7 +7020,7 @@
       <c r="F45" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="G45" s="20" t="s">
+      <c r="G45" s="13" t="s">
         <v>101</v>
       </c>
     </row>
@@ -6865,7 +7031,7 @@
       <c r="F46" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="G46" s="20" t="s">
+      <c r="G46" s="13" t="s">
         <v>101</v>
       </c>
     </row>
@@ -6876,7 +7042,7 @@
       <c r="F47" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="G47" s="20" t="s">
+      <c r="G47" s="13" t="s">
         <v>101</v>
       </c>
     </row>
@@ -6887,7 +7053,7 @@
       <c r="F48" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="G48" s="20" t="s">
+      <c r="G48" s="13" t="s">
         <v>101</v>
       </c>
     </row>
@@ -6909,7 +7075,7 @@
       <c r="F50" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="G50" s="20" t="s">
+      <c r="G50" s="13" t="s">
         <v>101</v>
       </c>
     </row>
@@ -6920,7 +7086,7 @@
       <c r="F51" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="G51" s="20" t="s">
+      <c r="G51" s="13" t="s">
         <v>101</v>
       </c>
     </row>
@@ -6931,7 +7097,7 @@
       <c r="F52" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="G52" s="20" t="s">
+      <c r="G52" s="13" t="s">
         <v>101</v>
       </c>
     </row>
@@ -6942,7 +7108,7 @@
       <c r="F53" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="G53" s="20" t="s">
+      <c r="G53" s="13" t="s">
         <v>101</v>
       </c>
     </row>
@@ -6968,7 +7134,7 @@
   <dimension ref="A1:K60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="H56" sqref="H56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -6979,25 +7145,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="E1" s="11" t="s">
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="E1" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="18" t="s">
         <v>130</v>
       </c>
-      <c r="B2" s="15"/>
+      <c r="B2" s="18"/>
       <c r="C2" s="4" t="s">
         <v>128</v>
       </c>
@@ -7021,12 +7187,16 @@
       <c r="B3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="2"/>
+      <c r="C3" s="3" t="s">
+        <v>311</v>
+      </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="G3" s="2"/>
+      <c r="G3" s="3" t="s">
+        <v>311</v>
+      </c>
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
       <c r="K3" s="7"/>
@@ -7038,12 +7208,16 @@
       <c r="B4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="2"/>
+      <c r="C4" s="3" t="s">
+        <v>311</v>
+      </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="G4" s="2"/>
+      <c r="G4" s="3" t="s">
+        <v>103</v>
+      </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
       <c r="K4" s="7"/>
@@ -7055,12 +7229,16 @@
       <c r="B5" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C5" s="2"/>
+      <c r="C5" s="3" t="s">
+        <v>311</v>
+      </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="G5" s="2"/>
+      <c r="G5" s="3" t="s">
+        <v>311</v>
+      </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
       <c r="K5" s="7"/>
@@ -7072,12 +7250,16 @@
       <c r="B6" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C6" s="2"/>
+      <c r="C6" s="3" t="s">
+        <v>311</v>
+      </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="G6" s="2"/>
+      <c r="G6" s="3" t="s">
+        <v>103</v>
+      </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7"/>
       <c r="K6" s="7"/>
@@ -7089,12 +7271,16 @@
       <c r="B7" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C7" s="2"/>
+      <c r="C7" s="3" t="s">
+        <v>311</v>
+      </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="G7" s="2"/>
+      <c r="G7" s="3" t="s">
+        <v>311</v>
+      </c>
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
       <c r="K7" s="7"/>
@@ -7106,12 +7292,16 @@
       <c r="B8" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="C8" s="2"/>
+      <c r="C8" s="3" t="s">
+        <v>311</v>
+      </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="G8" s="2"/>
+      <c r="G8" s="3" t="s">
+        <v>311</v>
+      </c>
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
       <c r="K8" s="7"/>
@@ -7123,14 +7313,18 @@
       <c r="B9" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="C9" s="2"/>
+      <c r="C9" s="3" t="s">
+        <v>311</v>
+      </c>
       <c r="E9" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="2"/>
+      <c r="G9" s="3" t="s">
+        <v>311</v>
+      </c>
       <c r="I9" s="7"/>
       <c r="J9" s="7"/>
       <c r="K9" s="7"/>
@@ -7142,14 +7336,18 @@
       <c r="B10" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C10" s="2"/>
+      <c r="C10" s="3" t="s">
+        <v>311</v>
+      </c>
       <c r="E10" s="2" t="s">
         <v>15</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G10" s="2"/>
+      <c r="G10" s="3" t="s">
+        <v>311</v>
+      </c>
       <c r="I10" s="7"/>
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
@@ -7161,7 +7359,9 @@
       <c r="F11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G11" s="2"/>
+      <c r="G11" s="3" t="s">
+        <v>311</v>
+      </c>
     </row>
     <row r="12" spans="1:11">
       <c r="E12" s="2" t="s">
@@ -7170,7 +7370,9 @@
       <c r="F12" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G12" s="2"/>
+      <c r="G12" s="3" t="s">
+        <v>311</v>
+      </c>
     </row>
     <row r="13" spans="1:11">
       <c r="E13" s="2" t="s">
@@ -7179,7 +7381,9 @@
       <c r="F13" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G13" s="2"/>
+      <c r="G13" s="3" t="s">
+        <v>311</v>
+      </c>
     </row>
     <row r="14" spans="1:11">
       <c r="E14" s="2" t="s">
@@ -7188,7 +7392,9 @@
       <c r="F14" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G14" s="2"/>
+      <c r="G14" s="3" t="s">
+        <v>311</v>
+      </c>
     </row>
     <row r="15" spans="1:11">
       <c r="E15" s="2" t="s">
@@ -7197,7 +7403,9 @@
       <c r="F15" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G15" s="2"/>
+      <c r="G15" s="3" t="s">
+        <v>311</v>
+      </c>
     </row>
     <row r="16" spans="1:11">
       <c r="E16" s="2" t="s">
@@ -7206,7 +7414,9 @@
       <c r="F16" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="G16" s="2"/>
+      <c r="G16" s="3" t="s">
+        <v>311</v>
+      </c>
     </row>
     <row r="17" spans="5:7">
       <c r="E17" s="2" t="s">
@@ -7215,7 +7425,9 @@
       <c r="F17" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="G17" s="2"/>
+      <c r="G17" s="3" t="s">
+        <v>311</v>
+      </c>
     </row>
     <row r="18" spans="5:7">
       <c r="E18" s="2" t="s">
@@ -7224,7 +7436,9 @@
       <c r="F18" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="G18" s="2"/>
+      <c r="G18" s="3" t="s">
+        <v>311</v>
+      </c>
     </row>
     <row r="19" spans="5:7">
       <c r="E19" s="2" t="s">
@@ -7233,7 +7447,9 @@
       <c r="F19" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G19" s="2"/>
+      <c r="G19" s="3" t="s">
+        <v>311</v>
+      </c>
     </row>
     <row r="20" spans="5:7">
       <c r="E20" s="2" t="s">
@@ -7242,7 +7458,9 @@
       <c r="F20" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G20" s="2"/>
+      <c r="G20" s="3" t="s">
+        <v>311</v>
+      </c>
     </row>
     <row r="21" spans="5:7">
       <c r="E21" s="2" t="s">
@@ -7251,7 +7469,9 @@
       <c r="F21" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G21" s="2"/>
+      <c r="G21" s="3" t="s">
+        <v>311</v>
+      </c>
     </row>
     <row r="22" spans="5:7">
       <c r="E22" s="2" t="s">
@@ -7260,7 +7480,9 @@
       <c r="F22" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G22" s="2"/>
+      <c r="G22" s="3" t="s">
+        <v>311</v>
+      </c>
     </row>
     <row r="23" spans="5:7">
       <c r="E23" s="2" t="s">
@@ -7269,7 +7491,9 @@
       <c r="F23" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="G23" s="2"/>
+      <c r="G23" s="3" t="s">
+        <v>311</v>
+      </c>
     </row>
     <row r="24" spans="5:7">
       <c r="E24" s="2" t="s">
@@ -7278,7 +7502,9 @@
       <c r="F24" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="G24" s="2"/>
+      <c r="G24" s="3" t="s">
+        <v>311</v>
+      </c>
     </row>
     <row r="25" spans="5:7">
       <c r="E25" s="2" t="s">
@@ -7287,7 +7513,9 @@
       <c r="F25" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="G25" s="2"/>
+      <c r="G25" s="3" t="s">
+        <v>311</v>
+      </c>
     </row>
     <row r="26" spans="5:7">
       <c r="E26" s="2" t="s">
@@ -7296,7 +7524,9 @@
       <c r="F26" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="G26" s="2"/>
+      <c r="G26" s="3" t="s">
+        <v>311</v>
+      </c>
     </row>
     <row r="27" spans="5:7">
       <c r="E27" s="2" t="s">
@@ -7305,7 +7535,9 @@
       <c r="F27" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="G27" s="2"/>
+      <c r="G27" s="3" t="s">
+        <v>311</v>
+      </c>
     </row>
     <row r="28" spans="5:7">
       <c r="E28" s="2" t="s">
@@ -7314,7 +7546,9 @@
       <c r="F28" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G28" s="2"/>
+      <c r="G28" s="3" t="s">
+        <v>311</v>
+      </c>
     </row>
     <row r="29" spans="5:7">
       <c r="E29" s="2" t="s">
@@ -7323,7 +7557,9 @@
       <c r="F29" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="G29" s="2"/>
+      <c r="G29" s="3" t="s">
+        <v>311</v>
+      </c>
     </row>
     <row r="30" spans="5:7">
       <c r="E30" s="2" t="s">
@@ -7332,7 +7568,9 @@
       <c r="F30" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="G30" s="2"/>
+      <c r="G30" s="3" t="s">
+        <v>311</v>
+      </c>
     </row>
     <row r="31" spans="5:7">
       <c r="E31" s="2" t="s">
@@ -7341,7 +7579,9 @@
       <c r="F31" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="G31" s="2"/>
+      <c r="G31" s="3" t="s">
+        <v>311</v>
+      </c>
     </row>
     <row r="32" spans="5:7">
       <c r="E32" s="2" t="s">
@@ -7350,259 +7590,321 @@
       <c r="F32" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="G32" s="2"/>
-    </row>
-    <row r="33" spans="5:7">
+      <c r="G32" s="3" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="33" spans="5:8">
       <c r="E33" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="G33" s="2"/>
-    </row>
-    <row r="34" spans="5:7">
+      <c r="G33" s="3" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="34" spans="5:8">
       <c r="E34" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="G34" s="2"/>
-    </row>
-    <row r="35" spans="5:7">
+      <c r="G34" s="3" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="35" spans="5:8">
       <c r="E35" s="2" t="s">
         <v>235</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="G35" s="2"/>
-    </row>
-    <row r="36" spans="5:7">
+      <c r="G35" s="3" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="36" spans="5:8">
       <c r="E36" s="2" t="s">
         <v>237</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="G36" s="2"/>
-    </row>
-    <row r="37" spans="5:7">
+      <c r="G36" s="3"/>
+      <c r="H36" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="37" spans="5:8">
       <c r="E37" s="2" t="s">
         <v>237</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="G37" s="2"/>
-    </row>
-    <row r="38" spans="5:7">
+      <c r="G37" s="3"/>
+      <c r="H37" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="38" spans="5:8">
       <c r="E38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G38" s="2"/>
-    </row>
-    <row r="39" spans="5:7">
+      <c r="G38" s="3" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="39" spans="5:8">
       <c r="E39" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="G39" s="2"/>
-    </row>
-    <row r="40" spans="5:7">
+      <c r="G39" s="3" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="40" spans="5:8">
       <c r="E40" s="2" t="s">
         <v>229</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="G40" s="2"/>
-    </row>
-    <row r="41" spans="5:7">
+      <c r="G40" s="3" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="41" spans="5:8">
       <c r="E41" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="G41" s="2"/>
-    </row>
-    <row r="42" spans="5:7">
+      <c r="G41" s="3" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="42" spans="5:8">
       <c r="E42" s="2" t="s">
         <v>15</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="G42" s="2"/>
-    </row>
-    <row r="43" spans="5:7">
+      <c r="G42" s="3" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="43" spans="5:8">
       <c r="E43" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="G43" s="2"/>
-    </row>
-    <row r="44" spans="5:7">
+      <c r="G43" s="3" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="44" spans="5:8">
       <c r="E44" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="G44" s="2"/>
-    </row>
-    <row r="45" spans="5:7">
+      <c r="G44" s="3" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="45" spans="5:8">
       <c r="E45" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="G45" s="2"/>
-    </row>
-    <row r="46" spans="5:7">
+      <c r="G45" s="3" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="46" spans="5:8">
       <c r="E46" s="2" t="s">
         <v>64</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="G46" s="2"/>
-    </row>
-    <row r="47" spans="5:7">
+      <c r="G46" s="3" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="47" spans="5:8">
       <c r="E47" s="2" t="s">
         <v>246</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="G47" s="2"/>
-    </row>
-    <row r="48" spans="5:7">
+      <c r="G47" s="3" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="48" spans="5:8">
       <c r="E48" s="2" t="s">
         <v>237</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="G48" s="2"/>
-    </row>
-    <row r="49" spans="5:7">
+      <c r="G48" s="3"/>
+      <c r="H48" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="49" spans="5:8">
       <c r="E49" s="2" t="s">
         <v>249</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="G49" s="2"/>
-    </row>
-    <row r="50" spans="5:7">
+      <c r="G49" s="3" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="50" spans="5:8">
       <c r="E50" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="G50" s="2"/>
-    </row>
-    <row r="51" spans="5:7">
+      <c r="G50" s="3" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="51" spans="5:8">
       <c r="E51" s="2" t="s">
         <v>15</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="G51" s="2"/>
-    </row>
-    <row r="52" spans="5:7">
+      <c r="G51" s="3" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="52" spans="5:8">
       <c r="E52" s="2" t="s">
         <v>253</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="G52" s="2"/>
-    </row>
-    <row r="53" spans="5:7">
+      <c r="G52" s="3" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="53" spans="5:8">
       <c r="E53" s="2" t="s">
         <v>45</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="G53" s="2"/>
-    </row>
-    <row r="54" spans="5:7">
+      <c r="G53" s="3"/>
+      <c r="H53" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="54" spans="5:8">
       <c r="E54" s="2" t="s">
         <v>45</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="G54" s="2"/>
-    </row>
-    <row r="55" spans="5:7">
+      <c r="G54" s="3" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="55" spans="5:8">
       <c r="E55" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="G55" s="2"/>
-    </row>
-    <row r="56" spans="5:7">
+      <c r="G55" s="3" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="56" spans="5:8">
       <c r="E56" s="2" t="s">
         <v>249</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="G56" s="2"/>
-    </row>
-    <row r="57" spans="5:7">
+      <c r="G56" s="3" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="57" spans="5:8">
       <c r="E57" s="2" t="s">
         <v>249</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="G57" s="2"/>
-    </row>
-    <row r="58" spans="5:7">
+      <c r="G57" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="58" spans="5:8">
       <c r="E58" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="G58" s="2"/>
-    </row>
-    <row r="59" spans="5:7">
+      <c r="G58" s="3" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="59" spans="5:8">
       <c r="E59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="G59" s="2"/>
-    </row>
-    <row r="60" spans="5:7">
+      <c r="G59" s="3" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="60" spans="5:8">
       <c r="E60" s="2" t="s">
         <v>253</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="G60" s="2"/>
+      <c r="G60" s="3" t="s">
+        <v>311</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -7636,23 +7938,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="16"/>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="E1" s="11" t="s">
+      <c r="A1" s="19"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="E1" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
       <c r="L1" s="7"/>
       <c r="M1" s="7"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="17"/>
-      <c r="B2" s="17"/>
+      <c r="A2" s="20"/>
+      <c r="B2" s="20"/>
       <c r="C2" s="6"/>
       <c r="E2" s="4" t="s">
         <v>126</v>
@@ -7872,7 +8174,7 @@
   <dimension ref="A1:L50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection activeCell="D70" sqref="D70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -7883,26 +8185,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="E1" s="11" t="s">
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="E1" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
       <c r="L1" s="7"/>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="18" t="s">
         <v>130</v>
       </c>
-      <c r="B2" s="15"/>
+      <c r="B2" s="18"/>
       <c r="C2" s="4" t="s">
         <v>128</v>
       </c>

--- a/status/status_qt_containers.xlsx
+++ b/status/status_qt_containers.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="21405"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="320" yWindow="0" windowWidth="23580" windowHeight="25160" tabRatio="500" firstSheet="4" activeTab="6"/>
+    <workbookView xWindow="320" yWindow="0" windowWidth="23580" windowHeight="25160" tabRatio="500" firstSheet="4" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="QList" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1409" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1413" uniqueCount="312">
   <si>
     <t>QList()</t>
   </si>
@@ -961,9 +961,6 @@
   </si>
   <si>
     <t>C++11</t>
-  </si>
-  <si>
-    <t>x</t>
   </si>
   <si>
     <t>problem with Qlist</t>
@@ -1085,8 +1082,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="145">
+  <cellStyleXfs count="149">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1291,7 +1292,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="145">
+  <cellStyles count="149">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1364,6 +1365,8 @@
     <cellStyle name="Followed Hyperlink" xfId="140" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="142" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="148" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1436,6 +1439,8 @@
     <cellStyle name="Hyperlink" xfId="139" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="141" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="143" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="145" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="147" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -7133,8 +7138,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H56" sqref="H56"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J51" sqref="J51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -7188,14 +7193,14 @@
         <v>15</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>311</v>
+        <v>101</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2" t="s">
         <v>216</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>311</v>
+        <v>101</v>
       </c>
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
@@ -7209,7 +7214,7 @@
         <v>13</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>311</v>
+        <v>101</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2" t="s">
@@ -7230,14 +7235,14 @@
         <v>92</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>311</v>
+        <v>101</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2" t="s">
         <v>218</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>311</v>
+        <v>101</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
@@ -7251,7 +7256,7 @@
         <v>93</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>311</v>
+        <v>101</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2" t="s">
@@ -7272,14 +7277,14 @@
         <v>96</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>311</v>
+        <v>101</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2" t="s">
         <v>220</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>311</v>
+        <v>101</v>
       </c>
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
@@ -7293,14 +7298,14 @@
         <v>183</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>311</v>
+        <v>101</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2" t="s">
         <v>221</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>311</v>
+        <v>101</v>
       </c>
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
@@ -7314,7 +7319,7 @@
         <v>215</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>311</v>
+        <v>101</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>13</v>
@@ -7323,7 +7328,7 @@
         <v>14</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>311</v>
+        <v>101</v>
       </c>
       <c r="I9" s="7"/>
       <c r="J9" s="7"/>
@@ -7337,7 +7342,7 @@
         <v>99</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>311</v>
+        <v>101</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>15</v>
@@ -7346,7 +7351,7 @@
         <v>16</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>311</v>
+        <v>101</v>
       </c>
       <c r="I10" s="7"/>
       <c r="J10" s="7"/>
@@ -7360,7 +7365,7 @@
         <v>17</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>311</v>
+        <v>101</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -7371,7 +7376,7 @@
         <v>18</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>311</v>
+        <v>101</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -7382,7 +7387,7 @@
         <v>19</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>311</v>
+        <v>101</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -7393,7 +7398,7 @@
         <v>20</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>311</v>
+        <v>101</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -7404,7 +7409,7 @@
         <v>21</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>311</v>
+        <v>101</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -7415,7 +7420,7 @@
         <v>222</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>311</v>
+        <v>101</v>
       </c>
     </row>
     <row r="17" spans="5:7">
@@ -7426,7 +7431,7 @@
         <v>223</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>311</v>
+        <v>101</v>
       </c>
     </row>
     <row r="18" spans="5:7">
@@ -7437,7 +7442,7 @@
         <v>224</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>311</v>
+        <v>101</v>
       </c>
     </row>
     <row r="19" spans="5:7">
@@ -7448,7 +7453,7 @@
         <v>26</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>311</v>
+        <v>101</v>
       </c>
     </row>
     <row r="20" spans="5:7">
@@ -7459,7 +7464,7 @@
         <v>27</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>311</v>
+        <v>101</v>
       </c>
     </row>
     <row r="21" spans="5:7">
@@ -7470,7 +7475,7 @@
         <v>28</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>311</v>
+        <v>101</v>
       </c>
     </row>
     <row r="22" spans="5:7">
@@ -7481,7 +7486,7 @@
         <v>29</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>311</v>
+        <v>101</v>
       </c>
     </row>
     <row r="23" spans="5:7">
@@ -7492,7 +7497,7 @@
         <v>226</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>311</v>
+        <v>101</v>
       </c>
     </row>
     <row r="24" spans="5:7">
@@ -7503,7 +7508,7 @@
         <v>31</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>311</v>
+        <v>101</v>
       </c>
     </row>
     <row r="25" spans="5:7">
@@ -7514,7 +7519,7 @@
         <v>227</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>311</v>
+        <v>101</v>
       </c>
     </row>
     <row r="26" spans="5:7">
@@ -7525,7 +7530,7 @@
         <v>228</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>311</v>
+        <v>101</v>
       </c>
     </row>
     <row r="27" spans="5:7">
@@ -7536,7 +7541,7 @@
         <v>33</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>311</v>
+        <v>101</v>
       </c>
     </row>
     <row r="28" spans="5:7">
@@ -7547,7 +7552,7 @@
         <v>34</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>311</v>
+        <v>101</v>
       </c>
     </row>
     <row r="29" spans="5:7">
@@ -7558,7 +7563,7 @@
         <v>230</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>311</v>
+        <v>101</v>
       </c>
     </row>
     <row r="30" spans="5:7">
@@ -7569,7 +7574,7 @@
         <v>231</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>311</v>
+        <v>101</v>
       </c>
     </row>
     <row r="31" spans="5:7">
@@ -7580,7 +7585,7 @@
         <v>232</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>311</v>
+        <v>101</v>
       </c>
     </row>
     <row r="32" spans="5:7">
@@ -7591,7 +7596,7 @@
         <v>233</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>311</v>
+        <v>101</v>
       </c>
     </row>
     <row r="33" spans="5:8">
@@ -7602,7 +7607,7 @@
         <v>234</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>311</v>
+        <v>101</v>
       </c>
     </row>
     <row r="34" spans="5:8">
@@ -7613,7 +7618,7 @@
         <v>40</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>311</v>
+        <v>101</v>
       </c>
     </row>
     <row r="35" spans="5:8">
@@ -7624,7 +7629,7 @@
         <v>236</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>311</v>
+        <v>101</v>
       </c>
     </row>
     <row r="36" spans="5:8">
@@ -7636,7 +7641,7 @@
       </c>
       <c r="G36" s="3"/>
       <c r="H36" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="37" spans="5:8">
@@ -7648,7 +7653,7 @@
       </c>
       <c r="G37" s="3"/>
       <c r="H37" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="38" spans="5:8">
@@ -7659,7 +7664,7 @@
         <v>41</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>311</v>
+        <v>101</v>
       </c>
     </row>
     <row r="39" spans="5:8">
@@ -7670,7 +7675,7 @@
         <v>42</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>311</v>
+        <v>101</v>
       </c>
     </row>
     <row r="40" spans="5:8">
@@ -7681,7 +7686,7 @@
         <v>240</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>311</v>
+        <v>101</v>
       </c>
     </row>
     <row r="41" spans="5:8">
@@ -7692,7 +7697,7 @@
         <v>241</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>311</v>
+        <v>101</v>
       </c>
     </row>
     <row r="42" spans="5:8">
@@ -7703,7 +7708,7 @@
         <v>242</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>311</v>
+        <v>101</v>
       </c>
     </row>
     <row r="43" spans="5:8">
@@ -7714,7 +7719,7 @@
         <v>243</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>311</v>
+        <v>101</v>
       </c>
     </row>
     <row r="44" spans="5:8">
@@ -7725,7 +7730,7 @@
         <v>60</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>311</v>
+        <v>101</v>
       </c>
     </row>
     <row r="45" spans="5:8">
@@ -7736,7 +7741,7 @@
         <v>244</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>311</v>
+        <v>101</v>
       </c>
     </row>
     <row r="46" spans="5:8">
@@ -7747,7 +7752,7 @@
         <v>245</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>311</v>
+        <v>101</v>
       </c>
     </row>
     <row r="47" spans="5:8">
@@ -7758,7 +7763,7 @@
         <v>247</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>311</v>
+        <v>101</v>
       </c>
     </row>
     <row r="48" spans="5:8">
@@ -7770,7 +7775,7 @@
       </c>
       <c r="G48" s="3"/>
       <c r="H48" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="49" spans="5:8">
@@ -7781,7 +7786,7 @@
         <v>250</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>311</v>
+        <v>101</v>
       </c>
     </row>
     <row r="50" spans="5:8">
@@ -7792,7 +7797,7 @@
         <v>251</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>311</v>
+        <v>101</v>
       </c>
     </row>
     <row r="51" spans="5:8">
@@ -7803,7 +7808,7 @@
         <v>252</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>311</v>
+        <v>101</v>
       </c>
     </row>
     <row r="52" spans="5:8">
@@ -7814,7 +7819,7 @@
         <v>254</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>311</v>
+        <v>101</v>
       </c>
     </row>
     <row r="53" spans="5:8">
@@ -7826,7 +7831,7 @@
       </c>
       <c r="G53" s="3"/>
       <c r="H53" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="54" spans="5:8">
@@ -7837,7 +7842,7 @@
         <v>255</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>311</v>
+        <v>101</v>
       </c>
     </row>
     <row r="55" spans="5:8">
@@ -7848,7 +7853,7 @@
         <v>256</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>311</v>
+        <v>101</v>
       </c>
     </row>
     <row r="56" spans="5:8">
@@ -7859,7 +7864,7 @@
         <v>257</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>311</v>
+        <v>101</v>
       </c>
     </row>
     <row r="57" spans="5:8">
@@ -7881,7 +7886,7 @@
         <v>259</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>311</v>
+        <v>101</v>
       </c>
     </row>
     <row r="59" spans="5:8">
@@ -7892,7 +7897,7 @@
         <v>260</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>311</v>
+        <v>101</v>
       </c>
     </row>
     <row r="60" spans="5:8">
@@ -7903,7 +7908,7 @@
         <v>261</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>311</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -7927,8 +7932,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -7979,7 +7984,9 @@
       <c r="F3" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="G3" s="2"/>
+      <c r="G3" s="3" t="s">
+        <v>101</v>
+      </c>
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
       <c r="K3" s="7"/>
@@ -7994,7 +8001,9 @@
       <c r="F4" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="G4" s="2"/>
+      <c r="G4" s="3" t="s">
+        <v>103</v>
+      </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
       <c r="K4" s="7"/>
@@ -8009,7 +8018,9 @@
       <c r="F5" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="G5" s="2"/>
+      <c r="G5" s="3" t="s">
+        <v>101</v>
+      </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
       <c r="K5" s="7"/>
@@ -8026,7 +8037,7 @@
       <c r="F6" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="G6" s="2"/>
+      <c r="G6" s="3"/>
       <c r="I6" s="7"/>
       <c r="J6" s="7"/>
       <c r="K6" s="7"/>
@@ -8040,7 +8051,7 @@
       <c r="F7" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="G7" s="2"/>
+      <c r="G7" s="3"/>
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
       <c r="K7" s="7"/>
@@ -8054,7 +8065,7 @@
       <c r="F8" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="G8" s="2"/>
+      <c r="G8" s="3"/>
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
       <c r="K8" s="7"/>
@@ -8068,7 +8079,7 @@
       <c r="F9" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="G9" s="2"/>
+      <c r="G9" s="3"/>
       <c r="I9" s="7"/>
       <c r="J9" s="7"/>
       <c r="K9" s="7"/>
@@ -8082,7 +8093,7 @@
       <c r="F10" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="G10" s="2"/>
+      <c r="G10" s="3"/>
     </row>
     <row r="11" spans="1:13">
       <c r="E11" s="2" t="s">
@@ -8091,7 +8102,7 @@
       <c r="F11" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="G11" s="2"/>
+      <c r="G11" s="3"/>
     </row>
     <row r="12" spans="1:13">
       <c r="E12" s="2" t="s">
@@ -8100,7 +8111,7 @@
       <c r="F12" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="G12" s="2"/>
+      <c r="G12" s="3"/>
     </row>
     <row r="13" spans="1:13">
       <c r="E13" s="2" t="s">
@@ -8109,7 +8120,7 @@
       <c r="F13" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="G13" s="2"/>
+      <c r="G13" s="3"/>
     </row>
     <row r="14" spans="1:13">
       <c r="E14" s="2" t="s">
@@ -8118,7 +8129,7 @@
       <c r="F14" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="G14" s="2"/>
+      <c r="G14" s="3"/>
     </row>
     <row r="15" spans="1:13">
       <c r="E15" s="2" t="s">
@@ -8127,7 +8138,7 @@
       <c r="F15" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="G15" s="2"/>
+      <c r="G15" s="3"/>
     </row>
     <row r="16" spans="1:13">
       <c r="E16" s="2" t="s">
@@ -8136,7 +8147,7 @@
       <c r="F16" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="G16" s="2"/>
+      <c r="G16" s="3"/>
     </row>
     <row r="17" spans="5:7">
       <c r="E17" s="2" t="s">
@@ -8145,11 +8156,14 @@
       <c r="F17" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="G17" s="2"/>
+      <c r="G17" s="3"/>
     </row>
     <row r="20" spans="5:7" ht="20">
       <c r="F20" s="8" t="s">
         <v>280</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/status/status_qt_containers.xlsx
+++ b/status/status_qt_containers.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="21405"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23613"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="320" yWindow="0" windowWidth="23580" windowHeight="25160" tabRatio="500" firstSheet="4" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" firstSheet="4" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="QList" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1413" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1425" uniqueCount="312">
   <si>
     <t>QList()</t>
   </si>
@@ -7933,7 +7933,7 @@
   <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -8037,7 +8037,9 @@
       <c r="F6" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="G6" s="3"/>
+      <c r="G6" s="3" t="s">
+        <v>101</v>
+      </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7"/>
       <c r="K6" s="7"/>
@@ -8051,7 +8053,9 @@
       <c r="F7" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="G7" s="3"/>
+      <c r="G7" s="3" t="s">
+        <v>101</v>
+      </c>
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
       <c r="K7" s="7"/>
@@ -8065,7 +8069,9 @@
       <c r="F8" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="G8" s="3"/>
+      <c r="G8" s="3" t="s">
+        <v>101</v>
+      </c>
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
       <c r="K8" s="7"/>
@@ -8079,7 +8085,9 @@
       <c r="F9" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="G9" s="3"/>
+      <c r="G9" s="3" t="s">
+        <v>101</v>
+      </c>
       <c r="I9" s="7"/>
       <c r="J9" s="7"/>
       <c r="K9" s="7"/>
@@ -8093,7 +8101,9 @@
       <c r="F10" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="G10" s="3"/>
+      <c r="G10" s="3" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="11" spans="1:13">
       <c r="E11" s="2" t="s">
@@ -8102,7 +8112,9 @@
       <c r="F11" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="G11" s="3"/>
+      <c r="G11" s="3" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="12" spans="1:13">
       <c r="E12" s="2" t="s">
@@ -8111,7 +8123,9 @@
       <c r="F12" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="G12" s="3"/>
+      <c r="G12" s="3" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="13" spans="1:13">
       <c r="E13" s="2" t="s">
@@ -8120,7 +8134,9 @@
       <c r="F13" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="G13" s="3"/>
+      <c r="G13" s="3" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="14" spans="1:13">
       <c r="E14" s="2" t="s">
@@ -8129,7 +8145,9 @@
       <c r="F14" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="G14" s="3"/>
+      <c r="G14" s="3" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="15" spans="1:13">
       <c r="E15" s="2" t="s">
@@ -8138,7 +8156,9 @@
       <c r="F15" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="G15" s="3"/>
+      <c r="G15" s="3" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="16" spans="1:13">
       <c r="E16" s="2" t="s">
@@ -8147,7 +8167,9 @@
       <c r="F16" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="G16" s="3"/>
+      <c r="G16" s="3" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="17" spans="5:7">
       <c r="E17" s="2" t="s">
@@ -8156,7 +8178,9 @@
       <c r="F17" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="G17" s="3"/>
+      <c r="G17" s="3" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="20" spans="5:7" ht="20">
       <c r="F20" s="8" t="s">

--- a/status/status_qt_containers.xlsx
+++ b/status/status_qt_containers.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23613"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" firstSheet="4" activeTab="7"/>
+    <workbookView xWindow="13160" yWindow="0" windowWidth="16340" windowHeight="15860" tabRatio="500" firstSheet="4" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="QList" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1425" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1481" uniqueCount="312">
   <si>
     <t>QList()</t>
   </si>
@@ -1082,8 +1082,26 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="149">
+  <cellStyleXfs count="167">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1292,7 +1310,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="149">
+  <cellStyles count="167">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1367,6 +1385,15 @@
     <cellStyle name="Followed Hyperlink" xfId="144" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="146" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="162" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="166" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1441,6 +1468,15 @@
     <cellStyle name="Hyperlink" xfId="143" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="145" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="147" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="149" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="151" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="153" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="155" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="157" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="159" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="161" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="163" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="165" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -7932,7 +7968,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
@@ -8211,8 +8247,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D70" sqref="D70"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -8267,12 +8303,16 @@
       <c r="B3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="2"/>
+      <c r="C3" s="9" t="s">
+        <v>101</v>
+      </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="G3" s="2"/>
+      <c r="G3" s="9" t="s">
+        <v>101</v>
+      </c>
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
       <c r="K3" s="7"/>
@@ -8285,12 +8325,16 @@
       <c r="B4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="2"/>
+      <c r="C4" s="9" t="s">
+        <v>101</v>
+      </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="G4" s="2"/>
+      <c r="G4" s="9" t="s">
+        <v>103</v>
+      </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
       <c r="K4" s="7"/>
@@ -8303,12 +8347,16 @@
       <c r="B5" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C5" s="2"/>
+      <c r="C5" s="9" t="s">
+        <v>101</v>
+      </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="G5" s="2"/>
+      <c r="G5" s="9" t="s">
+        <v>101</v>
+      </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
       <c r="K5" s="7"/>
@@ -8321,12 +8369,16 @@
       <c r="B6" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C6" s="2"/>
+      <c r="C6" s="9" t="s">
+        <v>101</v>
+      </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="G6" s="2"/>
+      <c r="G6" s="9" t="s">
+        <v>103</v>
+      </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7"/>
       <c r="K6" s="7"/>
@@ -8339,12 +8391,16 @@
       <c r="B7" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C7" s="2"/>
+      <c r="C7" s="9" t="s">
+        <v>103</v>
+      </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="G7" s="2"/>
+      <c r="G7" s="9" t="s">
+        <v>103</v>
+      </c>
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
       <c r="K7" s="7"/>
@@ -8357,14 +8413,18 @@
       <c r="B8" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="C8" s="2"/>
+      <c r="C8" s="9" t="s">
+        <v>101</v>
+      </c>
       <c r="E8" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="2"/>
+      <c r="G8" s="9" t="s">
+        <v>101</v>
+      </c>
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
       <c r="K8" s="7"/>
@@ -8377,14 +8437,18 @@
       <c r="B9" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="C9" s="2"/>
+      <c r="C9" s="9" t="s">
+        <v>101</v>
+      </c>
       <c r="E9" s="2" t="s">
         <v>15</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="2"/>
+      <c r="G9" s="9" t="s">
+        <v>101</v>
+      </c>
       <c r="I9" s="7"/>
       <c r="J9" s="7"/>
       <c r="K9" s="7"/>
@@ -8397,14 +8461,18 @@
       <c r="B10" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C10" s="2"/>
+      <c r="C10" s="9" t="s">
+        <v>101</v>
+      </c>
       <c r="E10" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="G10" s="2"/>
+      <c r="G10" s="9" t="s">
+        <v>101</v>
+      </c>
       <c r="I10" s="7"/>
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
@@ -8417,7 +8485,9 @@
       <c r="F11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G11" s="2"/>
+      <c r="G11" s="9" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="12" spans="1:12">
       <c r="E12" s="2" t="s">
@@ -8426,7 +8496,9 @@
       <c r="F12" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G12" s="2"/>
+      <c r="G12" s="9" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="13" spans="1:12">
       <c r="E13" s="2" t="s">
@@ -8435,7 +8507,9 @@
       <c r="F13" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G13" s="2"/>
+      <c r="G13" s="9" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="14" spans="1:12">
       <c r="E14" s="2" t="s">
@@ -8444,7 +8518,9 @@
       <c r="F14" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G14" s="2"/>
+      <c r="G14" s="9" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="15" spans="1:12">
       <c r="E15" s="2" t="s">
@@ -8453,7 +8529,9 @@
       <c r="F15" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G15" s="2"/>
+      <c r="G15" s="9" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="16" spans="1:12">
       <c r="E16" s="2" t="s">
@@ -8462,7 +8540,9 @@
       <c r="F16" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="G16" s="2"/>
+      <c r="G16" s="9" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="17" spans="5:7">
       <c r="E17" s="2" t="s">
@@ -8471,7 +8551,9 @@
       <c r="F17" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="G17" s="2"/>
+      <c r="G17" s="9" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="18" spans="5:7">
       <c r="E18" s="2" t="s">
@@ -8480,7 +8562,9 @@
       <c r="F18" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="G18" s="2"/>
+      <c r="G18" s="9" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="19" spans="5:7">
       <c r="E19" s="2" t="s">
@@ -8489,7 +8573,9 @@
       <c r="F19" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G19" s="2"/>
+      <c r="G19" s="9" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="20" spans="5:7">
       <c r="E20" s="2" t="s">
@@ -8498,7 +8584,9 @@
       <c r="F20" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G20" s="2"/>
+      <c r="G20" s="9" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="21" spans="5:7">
       <c r="E21" s="2" t="s">
@@ -8507,7 +8595,9 @@
       <c r="F21" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G21" s="2"/>
+      <c r="G21" s="9" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="22" spans="5:7">
       <c r="E22" s="2" t="s">
@@ -8516,7 +8606,9 @@
       <c r="F22" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G22" s="2"/>
+      <c r="G22" s="9" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="23" spans="5:7">
       <c r="E23" s="2" t="s">
@@ -8525,7 +8617,9 @@
       <c r="F23" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="G23" s="2"/>
+      <c r="G23" s="9" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="24" spans="5:7">
       <c r="E24" s="2" t="s">
@@ -8534,7 +8628,9 @@
       <c r="F24" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="G24" s="2"/>
+      <c r="G24" s="9" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="25" spans="5:7">
       <c r="E25" s="2" t="s">
@@ -8543,7 +8639,9 @@
       <c r="F25" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="G25" s="2"/>
+      <c r="G25" s="9" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="26" spans="5:7">
       <c r="E26" s="2" t="s">
@@ -8552,7 +8650,9 @@
       <c r="F26" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="G26" s="2"/>
+      <c r="G26" s="9" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="27" spans="5:7">
       <c r="E27" s="2" t="s">
@@ -8561,7 +8661,9 @@
       <c r="F27" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="G27" s="2"/>
+      <c r="G27" s="9" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="28" spans="5:7">
       <c r="E28" s="2" t="s">
@@ -8570,7 +8672,9 @@
       <c r="F28" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="G28" s="2"/>
+      <c r="G28" s="9" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="29" spans="5:7">
       <c r="E29" s="2" t="s">
@@ -8579,7 +8683,9 @@
       <c r="F29" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="G29" s="2"/>
+      <c r="G29" s="9" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="30" spans="5:7">
       <c r="E30" s="2" t="s">
@@ -8588,7 +8694,9 @@
       <c r="F30" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="G30" s="2"/>
+      <c r="G30" s="9" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="31" spans="5:7">
       <c r="E31" s="2" t="s">
@@ -8597,7 +8705,9 @@
       <c r="F31" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="G31" s="2"/>
+      <c r="G31" s="9" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="32" spans="5:7">
       <c r="E32" s="2" t="s">
@@ -8606,7 +8716,9 @@
       <c r="F32" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="G32" s="2"/>
+      <c r="G32" s="9" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="33" spans="5:7">
       <c r="E33" s="2" t="s">
@@ -8615,7 +8727,9 @@
       <c r="F33" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="G33" s="2"/>
+      <c r="G33" s="9" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="34" spans="5:7">
       <c r="E34" s="2" t="s">
@@ -8624,7 +8738,9 @@
       <c r="F34" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="G34" s="2"/>
+      <c r="G34" s="9" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="35" spans="5:7">
       <c r="E35" s="2" t="s">
@@ -8633,7 +8749,9 @@
       <c r="F35" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="G35" s="2"/>
+      <c r="G35" s="9" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="36" spans="5:7">
       <c r="E36" s="2" t="s">
@@ -8642,7 +8760,9 @@
       <c r="F36" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="G36" s="2"/>
+      <c r="G36" s="9" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="37" spans="5:7">
       <c r="E37" s="2" t="s">
@@ -8651,7 +8771,9 @@
       <c r="F37" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="G37" s="2"/>
+      <c r="G37" s="9" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="38" spans="5:7">
       <c r="E38" s="2" t="s">
@@ -8660,7 +8782,9 @@
       <c r="F38" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="G38" s="2"/>
+      <c r="G38" s="9" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="39" spans="5:7">
       <c r="E39" s="2" t="s">
@@ -8669,7 +8793,9 @@
       <c r="F39" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="G39" s="2"/>
+      <c r="G39" s="9" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="40" spans="5:7">
       <c r="E40" s="2" t="s">
@@ -8678,7 +8804,9 @@
       <c r="F40" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="G40" s="2"/>
+      <c r="G40" s="9" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="41" spans="5:7">
       <c r="E41" s="2" t="s">
@@ -8687,7 +8815,9 @@
       <c r="F41" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="G41" s="2"/>
+      <c r="G41" s="9" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="42" spans="5:7">
       <c r="E42" s="2" t="s">
@@ -8696,7 +8826,9 @@
       <c r="F42" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="G42" s="2"/>
+      <c r="G42" s="9" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="43" spans="5:7">
       <c r="E43" s="2" t="s">
@@ -8705,7 +8837,9 @@
       <c r="F43" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="G43" s="2"/>
+      <c r="G43" s="9" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="44" spans="5:7">
       <c r="E44" s="2" t="s">
@@ -8714,7 +8848,9 @@
       <c r="F44" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="G44" s="2"/>
+      <c r="G44" s="9" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="45" spans="5:7">
       <c r="E45" s="2" t="s">
@@ -8723,7 +8859,9 @@
       <c r="F45" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="G45" s="2"/>
+      <c r="G45" s="9" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="46" spans="5:7">
       <c r="E46" s="2" t="s">
@@ -8732,7 +8870,9 @@
       <c r="F46" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="G46" s="2"/>
+      <c r="G46" s="9" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="47" spans="5:7">
       <c r="E47" s="2" t="s">
@@ -8741,7 +8881,9 @@
       <c r="F47" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="G47" s="2"/>
+      <c r="G47" s="9" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="48" spans="5:7">
       <c r="E48" s="2" t="s">
@@ -8750,7 +8892,9 @@
       <c r="F48" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="G48" s="2"/>
+      <c r="G48" s="9" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="49" spans="5:7">
       <c r="E49" s="2" t="s">
@@ -8759,7 +8903,9 @@
       <c r="F49" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="G49" s="2"/>
+      <c r="G49" s="9" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="50" spans="5:7">
       <c r="E50" s="2" t="s">
@@ -8768,7 +8914,9 @@
       <c r="F50" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="G50" s="2"/>
+      <c r="G50" s="9" t="s">
+        <v>101</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/status/status_qt_containers.xlsx
+++ b/status/status_qt_containers.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23613"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="13160" yWindow="0" windowWidth="16340" windowHeight="15860" tabRatio="500" firstSheet="4" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" firstSheet="4" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="QList" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1481" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1496" uniqueCount="312">
   <si>
     <t>QList()</t>
   </si>
@@ -1082,7 +1082,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="167">
+  <cellStyleXfs count="173">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1250,8 +1250,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1309,8 +1315,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="167">
+  <cellStyles count="173">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1394,6 +1403,9 @@
     <cellStyle name="Followed Hyperlink" xfId="162" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="164" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="168" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="170" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="172" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1477,6 +1489,9 @@
     <cellStyle name="Hyperlink" xfId="161" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="163" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="165" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="167" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="169" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="171" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2922,8 +2937,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2972,7 +2987,9 @@
       <c r="F3" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="G3" s="2"/>
+      <c r="G3" s="9" t="s">
+        <v>101</v>
+      </c>
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
       <c r="K3" s="7"/>
@@ -2986,7 +3003,9 @@
       <c r="F4" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="G4" s="2"/>
+      <c r="G4" s="9" t="s">
+        <v>103</v>
+      </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
       <c r="K4" s="7"/>
@@ -3000,7 +3019,9 @@
       <c r="F5" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="G5" s="2"/>
+      <c r="G5" s="9" t="s">
+        <v>101</v>
+      </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
       <c r="K5" s="7"/>
@@ -3016,7 +3037,9 @@
       <c r="F6" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="G6" s="2"/>
+      <c r="G6" s="9" t="s">
+        <v>101</v>
+      </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7"/>
       <c r="K6" s="7"/>
@@ -3032,7 +3055,9 @@
       <c r="F7" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="G7" s="2"/>
+      <c r="G7" s="9" t="s">
+        <v>101</v>
+      </c>
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
       <c r="K7" s="7"/>
@@ -3045,7 +3070,9 @@
       <c r="F8" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="G8" s="2"/>
+      <c r="G8" s="9" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="9" spans="1:12">
       <c r="E9" s="2" t="s">
@@ -3054,7 +3081,9 @@
       <c r="F9" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="G9" s="2"/>
+      <c r="G9" s="9" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="10" spans="1:12">
       <c r="E10" s="2" t="s">
@@ -3063,7 +3092,9 @@
       <c r="F10" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="G10" s="2"/>
+      <c r="G10" s="9" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="11" spans="1:12">
       <c r="E11" s="2" t="s">
@@ -3072,7 +3103,9 @@
       <c r="F11" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="G11" s="2"/>
+      <c r="G11" s="9" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="12" spans="1:12">
       <c r="E12" s="2" t="s">
@@ -3081,7 +3114,9 @@
       <c r="F12" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="G12" s="2"/>
+      <c r="G12" s="9" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="13" spans="1:12">
       <c r="E13" s="2" t="s">
@@ -3090,7 +3125,9 @@
       <c r="F13" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="G13" s="2"/>
+      <c r="G13" s="9" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="14" spans="1:12">
       <c r="E14" s="2" t="s">
@@ -3099,7 +3136,9 @@
       <c r="F14" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="G14" s="2"/>
+      <c r="G14" s="9" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="15" spans="1:12">
       <c r="E15" s="2" t="s">
@@ -3108,7 +3147,9 @@
       <c r="F15" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="G15" s="2"/>
+      <c r="G15" s="9" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="16" spans="1:12">
       <c r="E16" s="2" t="s">
@@ -3117,11 +3158,19 @@
       <c r="F16" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="G16" s="2"/>
-    </row>
-    <row r="18" spans="6:6" ht="20">
+      <c r="G16" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="17" spans="6:7">
+      <c r="G17" s="21"/>
+    </row>
+    <row r="18" spans="6:7" ht="20">
       <c r="F18" s="8" t="s">
         <v>307</v>
+      </c>
+      <c r="G18" s="21" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -8247,7 +8296,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>

--- a/status/status_qt_containers.xlsx
+++ b/status/status_qt_containers.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23613"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" firstSheet="4" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28240" windowHeight="15440" tabRatio="500" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="QList" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1496" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1536" uniqueCount="316">
   <si>
     <t>QList()</t>
   </si>
@@ -964,13 +964,25 @@
   </si>
   <si>
     <t>problem with Qlist</t>
+  </si>
+  <si>
+    <t>Methods</t>
+  </si>
+  <si>
+    <t>Test Cases</t>
+  </si>
+  <si>
+    <t>Finished</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1023,6 +1035,14 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1032,7 +1052,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -1081,8 +1101,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="173">
+  <cellStyleXfs count="177">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1256,8 +1300,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1294,6 +1342,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1315,11 +1366,30 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="173">
+  <cellStyles count="177">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1406,6 +1476,8 @@
     <cellStyle name="Followed Hyperlink" xfId="168" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="170" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="172" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="174" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="176" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1492,6 +1564,8 @@
     <cellStyle name="Hyperlink" xfId="167" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="169" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="171" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="173" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="175" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1824,7 +1898,7 @@
   <dimension ref="A1:N77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+      <selection activeCell="G17" sqref="G17:I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1837,23 +1911,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="F1" s="14" t="s">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="F1" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="K1" s="15" t="s">
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="K1" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="4" t="s">
@@ -1868,10 +1942,10 @@
       <c r="D2" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="F2" s="17" t="s">
         <v>130</v>
       </c>
-      <c r="G2" s="17"/>
+      <c r="G2" s="18"/>
       <c r="H2" s="4" t="s">
         <v>128</v>
       </c>
@@ -2186,7 +2260,7 @@
       </c>
       <c r="D16" s="3"/>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:9">
       <c r="A17" s="2" t="s">
         <v>5</v>
       </c>
@@ -2197,8 +2271,14 @@
         <v>101</v>
       </c>
       <c r="D17" s="3"/>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="H17" s="22" t="s">
+        <v>315</v>
+      </c>
+      <c r="I17" s="23" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="2" t="s">
         <v>15</v>
       </c>
@@ -2209,8 +2289,17 @@
         <v>101</v>
       </c>
       <c r="D18" s="3"/>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="G18" s="23" t="s">
+        <v>312</v>
+      </c>
+      <c r="H18" s="9">
+        <v>78</v>
+      </c>
+      <c r="I18" s="9">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="2" t="s">
         <v>15</v>
       </c>
@@ -2221,8 +2310,17 @@
         <v>101</v>
       </c>
       <c r="D19" s="3"/>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="G19" s="23" t="s">
+        <v>313</v>
+      </c>
+      <c r="H19" s="9">
+        <v>156</v>
+      </c>
+      <c r="I19" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="2" t="s">
         <v>22</v>
       </c>
@@ -2234,7 +2332,7 @@
       </c>
       <c r="D20" s="3"/>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:9">
       <c r="A21" s="2" t="s">
         <v>24</v>
       </c>
@@ -2246,7 +2344,7 @@
       </c>
       <c r="D21" s="3"/>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:9">
       <c r="A22" s="2" t="s">
         <v>24</v>
       </c>
@@ -2258,7 +2356,7 @@
       </c>
       <c r="D22" s="3"/>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:9">
       <c r="A23" s="2" t="s">
         <v>22</v>
       </c>
@@ -2270,7 +2368,7 @@
       </c>
       <c r="D23" s="3"/>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:9">
       <c r="A24" s="2" t="s">
         <v>13</v>
       </c>
@@ -2282,7 +2380,7 @@
       </c>
       <c r="D24" s="3"/>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:9">
       <c r="A25" s="2" t="s">
         <v>15</v>
       </c>
@@ -2294,7 +2392,7 @@
       </c>
       <c r="D25" s="3"/>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:9">
       <c r="A26" s="2" t="s">
         <v>22</v>
       </c>
@@ -2306,7 +2404,7 @@
       </c>
       <c r="D26" s="3"/>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:9">
       <c r="A27" s="2" t="s">
         <v>13</v>
       </c>
@@ -2318,7 +2416,7 @@
       </c>
       <c r="D27" s="3"/>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:9">
       <c r="A28" s="2" t="s">
         <v>13</v>
       </c>
@@ -2330,7 +2428,7 @@
       </c>
       <c r="D28" s="3"/>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:9">
       <c r="A29" s="2" t="s">
         <v>10</v>
       </c>
@@ -2342,7 +2440,7 @@
       </c>
       <c r="D29" s="3"/>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:9">
       <c r="A30" s="2" t="s">
         <v>8</v>
       </c>
@@ -2354,7 +2452,7 @@
       </c>
       <c r="D30" s="3"/>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:9">
       <c r="A31" s="2" t="s">
         <v>10</v>
       </c>
@@ -2366,7 +2464,7 @@
       </c>
       <c r="D31" s="3"/>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:9">
       <c r="A32" s="2" t="s">
         <v>8</v>
       </c>
@@ -2938,7 +3036,7 @@
   <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2948,22 +3046,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="19"/>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="E1" s="14" t="s">
+      <c r="A1" s="20"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="E1" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
       <c r="L1" s="7"/>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="20"/>
-      <c r="B2" s="20"/>
+      <c r="A2" s="21"/>
+      <c r="B2" s="21"/>
       <c r="C2" s="6"/>
       <c r="E2" s="4" t="s">
         <v>126</v>
@@ -3006,9 +3104,13 @@
       <c r="G4" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="25" t="s">
+        <v>315</v>
+      </c>
+      <c r="K4" s="26" t="s">
+        <v>314</v>
+      </c>
       <c r="L4" s="7"/>
     </row>
     <row r="5" spans="1:12">
@@ -3022,9 +3124,15 @@
       <c r="G5" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
+      <c r="I5" s="27" t="s">
+        <v>312</v>
+      </c>
+      <c r="J5" s="28">
+        <v>16</v>
+      </c>
+      <c r="K5" s="28">
+        <v>15</v>
+      </c>
       <c r="L5" s="7"/>
     </row>
     <row r="6" spans="1:12">
@@ -3040,9 +3148,15 @@
       <c r="G6" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
+      <c r="I6" s="29" t="s">
+        <v>313</v>
+      </c>
+      <c r="J6" s="28">
+        <v>32</v>
+      </c>
+      <c r="K6" s="28">
+        <v>0</v>
+      </c>
       <c r="L6" s="7"/>
     </row>
     <row r="7" spans="1:12">
@@ -3163,13 +3277,13 @@
       </c>
     </row>
     <row r="17" spans="6:7">
-      <c r="G17" s="21"/>
+      <c r="G17" s="14"/>
     </row>
     <row r="18" spans="6:7" ht="20">
       <c r="F18" s="8" t="s">
         <v>307</v>
       </c>
-      <c r="G18" s="21" t="s">
+      <c r="G18" s="14" t="s">
         <v>101</v>
       </c>
     </row>
@@ -3195,7 +3309,7 @@
   <dimension ref="A1:K58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="I11" sqref="I11:K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3208,27 +3322,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="E1" s="14" t="s">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="E1" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="I1" s="14" t="s">
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="I1" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="17" t="s">
         <v>130</v>
       </c>
-      <c r="B2" s="17"/>
+      <c r="B2" s="18"/>
       <c r="C2" s="4" t="s">
         <v>128</v>
       </c>
@@ -3429,6 +3543,12 @@
       <c r="G11" s="3" t="s">
         <v>101</v>
       </c>
+      <c r="J11" s="22" t="s">
+        <v>315</v>
+      </c>
+      <c r="K11" s="23" t="s">
+        <v>314</v>
+      </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="3" t="s">
@@ -3449,6 +3569,15 @@
       <c r="G12" s="3" t="s">
         <v>101</v>
       </c>
+      <c r="I12" s="23" t="s">
+        <v>312</v>
+      </c>
+      <c r="J12" s="9">
+        <v>57</v>
+      </c>
+      <c r="K12" s="9">
+        <v>54</v>
+      </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="3" t="s">
@@ -3468,6 +3597,16 @@
       </c>
       <c r="G13" s="3" t="s">
         <v>101</v>
+      </c>
+      <c r="I13" s="23" t="s">
+        <v>313</v>
+      </c>
+      <c r="J13" s="9">
+        <f>J12*2</f>
+        <v>114</v>
+      </c>
+      <c r="K13" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -3986,8 +4125,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O89"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4000,27 +4139,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="E1" s="14" t="s">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="E1" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="I1" s="14" t="s">
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="I1" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="B2" s="18"/>
+      <c r="B2" s="19"/>
       <c r="C2" s="4" t="s">
         <v>128</v>
       </c>
@@ -4209,9 +4348,12 @@
         <v>310</v>
       </c>
       <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
+      <c r="J8" s="22" t="s">
+        <v>315</v>
+      </c>
+      <c r="K8" s="23" t="s">
+        <v>314</v>
+      </c>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
@@ -4236,9 +4378,15 @@
         <v>101</v>
       </c>
       <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
+      <c r="I9" s="23" t="s">
+        <v>312</v>
+      </c>
+      <c r="J9" s="9">
+        <v>87</v>
+      </c>
+      <c r="K9" s="9">
+        <v>79</v>
+      </c>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
@@ -4265,9 +4413,16 @@
         <v>101</v>
       </c>
       <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
+      <c r="I10" s="23" t="s">
+        <v>313</v>
+      </c>
+      <c r="J10" s="9">
+        <f>J9*2</f>
+        <v>174</v>
+      </c>
+      <c r="K10" s="9">
+        <v>0</v>
+      </c>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
@@ -6116,7 +6271,7 @@
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -6126,22 +6281,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="19"/>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="E1" s="14" t="s">
+      <c r="A1" s="20"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="E1" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
       <c r="L1" s="7"/>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="20"/>
-      <c r="B2" s="20"/>
+      <c r="A2" s="21"/>
+      <c r="B2" s="21"/>
       <c r="C2" s="6"/>
       <c r="E2" s="4" t="s">
         <v>126</v>
@@ -6168,9 +6323,13 @@
       <c r="G3" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="25" t="s">
+        <v>315</v>
+      </c>
+      <c r="K3" s="26" t="s">
+        <v>314</v>
+      </c>
       <c r="L3" s="7"/>
     </row>
     <row r="4" spans="1:12">
@@ -6184,9 +6343,15 @@
       <c r="G4" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
+      <c r="I4" s="27" t="s">
+        <v>312</v>
+      </c>
+      <c r="J4" s="28">
+        <v>7</v>
+      </c>
+      <c r="K4" s="28">
+        <v>7</v>
+      </c>
       <c r="L4" s="7"/>
     </row>
     <row r="5" spans="1:12">
@@ -6202,9 +6367,15 @@
       <c r="G5" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
+      <c r="I5" s="29" t="s">
+        <v>313</v>
+      </c>
+      <c r="J5" s="28">
+        <v>14</v>
+      </c>
+      <c r="K5" s="28">
+        <v>0</v>
+      </c>
       <c r="L5" s="7"/>
     </row>
     <row r="6" spans="1:12">
@@ -6296,7 +6467,7 @@
   <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -6306,22 +6477,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="19"/>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="E1" s="14" t="s">
+      <c r="A1" s="20"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="E1" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
       <c r="L1" s="7"/>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="20"/>
-      <c r="B2" s="20"/>
+      <c r="A2" s="21"/>
+      <c r="B2" s="21"/>
       <c r="C2" s="6"/>
       <c r="E2" s="4" t="s">
         <v>126</v>
@@ -6348,9 +6519,13 @@
       <c r="G3" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="25" t="s">
+        <v>315</v>
+      </c>
+      <c r="K3" s="26" t="s">
+        <v>314</v>
+      </c>
       <c r="L3" s="7"/>
     </row>
     <row r="4" spans="1:12">
@@ -6364,9 +6539,15 @@
       <c r="G4" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
+      <c r="I4" s="27" t="s">
+        <v>312</v>
+      </c>
+      <c r="J4" s="28">
+        <v>7</v>
+      </c>
+      <c r="K4" s="28">
+        <v>7</v>
+      </c>
       <c r="L4" s="7"/>
     </row>
     <row r="5" spans="1:12">
@@ -6382,9 +6563,15 @@
       <c r="G5" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
+      <c r="I5" s="29" t="s">
+        <v>313</v>
+      </c>
+      <c r="J5" s="28">
+        <v>14</v>
+      </c>
+      <c r="K5" s="28">
+        <v>0</v>
+      </c>
       <c r="L5" s="7"/>
     </row>
     <row r="6" spans="1:12">
@@ -6477,7 +6664,7 @@
   <dimension ref="A1:K53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -6489,27 +6676,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="E1" s="14" t="s">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="E1" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="I1" s="14" t="s">
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="I1" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="B2" s="18"/>
+      <c r="B2" s="19"/>
       <c r="C2" s="4" t="s">
         <v>128</v>
       </c>
@@ -6632,6 +6819,13 @@
       <c r="G7" s="9" t="s">
         <v>101</v>
       </c>
+      <c r="I7" s="24"/>
+      <c r="J7" s="25" t="s">
+        <v>315</v>
+      </c>
+      <c r="K7" s="26" t="s">
+        <v>314</v>
+      </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="2" t="s">
@@ -6652,6 +6846,15 @@
       <c r="G8" s="9" t="s">
         <v>101</v>
       </c>
+      <c r="I8" s="27" t="s">
+        <v>312</v>
+      </c>
+      <c r="J8" s="28">
+        <v>52</v>
+      </c>
+      <c r="K8" s="28">
+        <v>46</v>
+      </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="2" t="s">
@@ -6671,6 +6874,16 @@
       </c>
       <c r="G9" s="9" t="s">
         <v>101</v>
+      </c>
+      <c r="I9" s="29" t="s">
+        <v>313</v>
+      </c>
+      <c r="J9" s="28">
+        <f>2*J8</f>
+        <v>104</v>
+      </c>
+      <c r="K9" s="28">
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -7221,10 +7434,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K60"/>
+  <dimension ref="A1:L60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J51" sqref="J51"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -7234,26 +7447,26 @@
     <col min="6" max="6" width="53.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:12">
+      <c r="A1" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="E1" s="14" t="s">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="E1" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="18" t="s">
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="B2" s="18"/>
+      <c r="B2" s="19"/>
       <c r="C2" s="4" t="s">
         <v>128</v>
       </c>
@@ -7270,7 +7483,7 @@
       <c r="J2" s="6"/>
       <c r="K2" s="6"/>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:12">
       <c r="A3" s="2" t="s">
         <v>89</v>
       </c>
@@ -7291,7 +7504,7 @@
       <c r="J3" s="7"/>
       <c r="K3" s="7"/>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:12">
       <c r="A4" s="2" t="s">
         <v>89</v>
       </c>
@@ -7309,10 +7522,15 @@
         <v>103</v>
       </c>
       <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="J4" s="24"/>
+      <c r="K4" s="25" t="s">
+        <v>315</v>
+      </c>
+      <c r="L4" s="26" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="2" t="s">
         <v>91</v>
       </c>
@@ -7330,10 +7548,17 @@
         <v>101</v>
       </c>
       <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="J5" s="27" t="s">
+        <v>312</v>
+      </c>
+      <c r="K5" s="28">
+        <v>58</v>
+      </c>
+      <c r="L5" s="28">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="2" t="s">
         <v>91</v>
       </c>
@@ -7351,10 +7576,18 @@
         <v>103</v>
       </c>
       <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="J6" s="29" t="s">
+        <v>313</v>
+      </c>
+      <c r="K6" s="28">
+        <f>2*K5</f>
+        <v>116</v>
+      </c>
+      <c r="L6" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="2" t="s">
         <v>91</v>
       </c>
@@ -7375,7 +7608,7 @@
       <c r="J7" s="7"/>
       <c r="K7" s="7"/>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:12">
       <c r="A8" s="2" t="s">
         <v>91</v>
       </c>
@@ -7396,7 +7629,7 @@
       <c r="J8" s="7"/>
       <c r="K8" s="7"/>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:12">
       <c r="A9" s="2" t="s">
         <v>91</v>
       </c>
@@ -7419,7 +7652,7 @@
       <c r="J9" s="7"/>
       <c r="K9" s="7"/>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:12">
       <c r="A10" s="2" t="s">
         <v>91</v>
       </c>
@@ -7442,7 +7675,7 @@
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:12">
       <c r="E11" s="2" t="s">
         <v>15</v>
       </c>
@@ -7453,7 +7686,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:12">
       <c r="E12" s="2" t="s">
         <v>15</v>
       </c>
@@ -7464,7 +7697,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:12">
       <c r="E13" s="2" t="s">
         <v>5</v>
       </c>
@@ -7475,7 +7708,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:12">
       <c r="E14" s="2" t="s">
         <v>15</v>
       </c>
@@ -7486,7 +7719,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:12">
       <c r="E15" s="2" t="s">
         <v>15</v>
       </c>
@@ -7497,7 +7730,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:12">
       <c r="E16" s="2" t="s">
         <v>15</v>
       </c>
@@ -8018,7 +8251,7 @@
   <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -8028,23 +8261,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="19"/>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="E1" s="14" t="s">
+      <c r="A1" s="20"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="E1" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
       <c r="L1" s="7"/>
       <c r="M1" s="7"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="20"/>
-      <c r="B2" s="20"/>
+      <c r="A2" s="21"/>
+      <c r="B2" s="21"/>
       <c r="C2" s="6"/>
       <c r="E2" s="4" t="s">
         <v>126</v>
@@ -8089,9 +8322,13 @@
       <c r="G4" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="25" t="s">
+        <v>315</v>
+      </c>
+      <c r="K4" s="26" t="s">
+        <v>314</v>
+      </c>
       <c r="L4" s="7"/>
       <c r="M4" s="7"/>
     </row>
@@ -8106,9 +8343,15 @@
       <c r="G5" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
+      <c r="I5" s="27" t="s">
+        <v>312</v>
+      </c>
+      <c r="J5" s="28">
+        <v>15</v>
+      </c>
+      <c r="K5" s="28">
+        <v>14</v>
+      </c>
       <c r="L5" s="7"/>
       <c r="M5" s="7"/>
     </row>
@@ -8125,9 +8368,15 @@
       <c r="G6" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
+      <c r="I6" s="29" t="s">
+        <v>313</v>
+      </c>
+      <c r="J6" s="28">
+        <v>30</v>
+      </c>
+      <c r="K6" s="28">
+        <v>0</v>
+      </c>
       <c r="L6" s="7"/>
       <c r="M6" s="7"/>
     </row>
@@ -8297,7 +8546,7 @@
   <dimension ref="A1:L50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G42" sqref="G42"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -8308,26 +8557,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="E1" s="14" t="s">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="E1" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
       <c r="L1" s="7"/>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="B2" s="18"/>
+      <c r="B2" s="19"/>
       <c r="C2" s="4" t="s">
         <v>128</v>
       </c>
@@ -8406,9 +8655,13 @@
       <c r="G5" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="25" t="s">
+        <v>315</v>
+      </c>
+      <c r="K5" s="26" t="s">
+        <v>314</v>
+      </c>
       <c r="L5" s="7"/>
     </row>
     <row r="6" spans="1:12">
@@ -8428,9 +8681,15 @@
       <c r="G6" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
+      <c r="I6" s="27" t="s">
+        <v>312</v>
+      </c>
+      <c r="J6" s="28">
+        <v>48</v>
+      </c>
+      <c r="K6" s="28">
+        <v>40</v>
+      </c>
       <c r="L6" s="7"/>
     </row>
     <row r="7" spans="1:12">
@@ -8448,11 +8707,17 @@
         <v>285</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
+        <v>101</v>
+      </c>
+      <c r="I7" s="29" t="s">
+        <v>313</v>
+      </c>
+      <c r="J7" s="28">
+        <v>96</v>
+      </c>
+      <c r="K7" s="28">
+        <v>0</v>
+      </c>
       <c r="L7" s="7"/>
     </row>
     <row r="8" spans="1:12">

--- a/status/status_qt_containers.xlsx
+++ b/status/status_qt_containers.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23613"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="21405"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28240" windowHeight="15440" tabRatio="500" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28240" windowHeight="15440" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="QList" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1536" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1578" uniqueCount="317">
   <si>
     <t>QList()</t>
   </si>
@@ -976,6 +976,9 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
 </sst>
 </file>
@@ -1052,7 +1055,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -1123,6 +1126,26 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -1305,7 +1328,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1345,27 +1368,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1388,6 +1390,30 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="177">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1898,7 +1924,7 @@
   <dimension ref="A1:N77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17:I19"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1911,23 +1937,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="F1" s="15" t="s">
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="F1" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="K1" s="16" t="s">
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="K1" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="4" t="s">
@@ -1942,10 +1968,10 @@
       <c r="D2" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="F2" s="25" t="s">
         <v>130</v>
       </c>
-      <c r="G2" s="18"/>
+      <c r="G2" s="26"/>
       <c r="H2" s="4" t="s">
         <v>128</v>
       </c>
@@ -2271,10 +2297,10 @@
         <v>101</v>
       </c>
       <c r="D17" s="3"/>
-      <c r="H17" s="22" t="s">
+      <c r="H17" s="15" t="s">
         <v>315</v>
       </c>
-      <c r="I17" s="23" t="s">
+      <c r="I17" s="16" t="s">
         <v>314</v>
       </c>
     </row>
@@ -2289,7 +2315,7 @@
         <v>101</v>
       </c>
       <c r="D18" s="3"/>
-      <c r="G18" s="23" t="s">
+      <c r="G18" s="16" t="s">
         <v>312</v>
       </c>
       <c r="H18" s="9">
@@ -2310,14 +2336,14 @@
         <v>101</v>
       </c>
       <c r="D19" s="3"/>
-      <c r="G19" s="23" t="s">
+      <c r="G19" s="16" t="s">
         <v>313</v>
       </c>
       <c r="H19" s="9">
         <v>156</v>
       </c>
       <c r="I19" s="9">
-        <v>0</v>
+        <v>92</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -3035,7 +3061,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
@@ -3046,22 +3072,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="20"/>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="E1" s="15" t="s">
+      <c r="A1" s="28"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="E1" s="23" t="s">
         <v>109</v>
       </c>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
       <c r="L1" s="7"/>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="21"/>
-      <c r="B2" s="21"/>
+      <c r="A2" s="29"/>
+      <c r="B2" s="29"/>
       <c r="C2" s="6"/>
       <c r="E2" s="4" t="s">
         <v>126</v>
@@ -3104,11 +3130,11 @@
       <c r="G4" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="I4" s="24"/>
-      <c r="J4" s="25" t="s">
+      <c r="I4" s="17"/>
+      <c r="J4" s="18" t="s">
         <v>315</v>
       </c>
-      <c r="K4" s="26" t="s">
+      <c r="K4" s="19" t="s">
         <v>314</v>
       </c>
       <c r="L4" s="7"/>
@@ -3124,13 +3150,13 @@
       <c r="G5" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="I5" s="27" t="s">
+      <c r="I5" s="20" t="s">
         <v>312</v>
       </c>
-      <c r="J5" s="28">
+      <c r="J5" s="21">
         <v>16</v>
       </c>
-      <c r="K5" s="28">
+      <c r="K5" s="21">
         <v>15</v>
       </c>
       <c r="L5" s="7"/>
@@ -3148,13 +3174,13 @@
       <c r="G6" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="I6" s="29" t="s">
+      <c r="I6" s="22" t="s">
         <v>313</v>
       </c>
-      <c r="J6" s="28">
+      <c r="J6" s="21">
         <v>32</v>
       </c>
-      <c r="K6" s="28">
+      <c r="K6" s="21">
         <v>0</v>
       </c>
       <c r="L6" s="7"/>
@@ -3308,8 +3334,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I11" sqref="I11:K13"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="H49" sqref="H49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3322,27 +3348,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="E1" s="15" t="s">
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="E1" s="23" t="s">
         <v>109</v>
       </c>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="I1" s="15" t="s">
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="I1" s="23" t="s">
         <v>125</v>
       </c>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="25" t="s">
         <v>130</v>
       </c>
-      <c r="B2" s="18"/>
+      <c r="B2" s="26"/>
       <c r="C2" s="4" t="s">
         <v>128</v>
       </c>
@@ -3382,6 +3408,7 @@
       <c r="G3" s="3" t="s">
         <v>101</v>
       </c>
+      <c r="H3" s="30"/>
       <c r="I3" s="2" t="s">
         <v>117</v>
       </c>
@@ -3483,6 +3510,9 @@
       <c r="G8" s="3" t="s">
         <v>101</v>
       </c>
+      <c r="H8" s="30" t="s">
+        <v>316</v>
+      </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="3" t="s">
@@ -3503,6 +3533,9 @@
       <c r="G9" s="3" t="s">
         <v>101</v>
       </c>
+      <c r="H9" s="30" t="s">
+        <v>316</v>
+      </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="3" t="s">
@@ -3523,6 +3556,9 @@
       <c r="G10" s="3" t="s">
         <v>101</v>
       </c>
+      <c r="H10" s="30" t="s">
+        <v>316</v>
+      </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="3" t="s">
@@ -3543,10 +3579,13 @@
       <c r="G11" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="J11" s="22" t="s">
+      <c r="H11" s="30" t="s">
+        <v>316</v>
+      </c>
+      <c r="J11" s="15" t="s">
         <v>315</v>
       </c>
-      <c r="K11" s="23" t="s">
+      <c r="K11" s="16" t="s">
         <v>314</v>
       </c>
     </row>
@@ -3569,7 +3608,10 @@
       <c r="G12" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="I12" s="23" t="s">
+      <c r="H12" s="31" t="s">
+        <v>316</v>
+      </c>
+      <c r="I12" s="16" t="s">
         <v>312</v>
       </c>
       <c r="J12" s="9">
@@ -3598,7 +3640,10 @@
       <c r="G13" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="I13" s="23" t="s">
+      <c r="H13" s="31" t="s">
+        <v>316</v>
+      </c>
+      <c r="I13" s="16" t="s">
         <v>313</v>
       </c>
       <c r="J13" s="9">
@@ -3619,6 +3664,9 @@
       <c r="G14" s="3" t="s">
         <v>101</v>
       </c>
+      <c r="H14" s="31" t="s">
+        <v>316</v>
+      </c>
     </row>
     <row r="15" spans="1:11">
       <c r="E15" s="2" t="s">
@@ -3630,6 +3678,9 @@
       <c r="G15" s="3" t="s">
         <v>101</v>
       </c>
+      <c r="H15" s="32" t="s">
+        <v>316</v>
+      </c>
     </row>
     <row r="16" spans="1:11">
       <c r="E16" s="2" t="s">
@@ -3641,8 +3692,11 @@
       <c r="G16" s="3" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="17" spans="5:7">
+      <c r="H16" s="32" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="17" spans="5:8">
       <c r="E17" s="2" t="s">
         <v>15</v>
       </c>
@@ -3652,8 +3706,11 @@
       <c r="G17" s="3" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="18" spans="5:7">
+      <c r="H17" s="32" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="18" spans="5:8">
       <c r="E18" s="2" t="s">
         <v>22</v>
       </c>
@@ -3663,8 +3720,11 @@
       <c r="G18" s="3" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="19" spans="5:7">
+      <c r="H18" s="32" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="19" spans="5:8">
       <c r="E19" s="2" t="s">
         <v>24</v>
       </c>
@@ -3674,8 +3734,11 @@
       <c r="G19" s="3" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="20" spans="5:7">
+      <c r="H19" s="32" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="20" spans="5:8">
       <c r="E20" s="2" t="s">
         <v>24</v>
       </c>
@@ -3685,8 +3748,11 @@
       <c r="G20" s="3" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="21" spans="5:7">
+      <c r="H20" s="32" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="21" spans="5:8">
       <c r="E21" s="2" t="s">
         <v>22</v>
       </c>
@@ -3696,8 +3762,11 @@
       <c r="G21" s="3" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="22" spans="5:7">
+      <c r="H21" s="32" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="22" spans="5:8">
       <c r="E22" s="2" t="s">
         <v>13</v>
       </c>
@@ -3707,8 +3776,11 @@
       <c r="G22" s="3" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="23" spans="5:7">
+      <c r="H22" s="32" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="23" spans="5:8">
       <c r="E23" s="2" t="s">
         <v>15</v>
       </c>
@@ -3718,8 +3790,11 @@
       <c r="G23" s="3" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="24" spans="5:7">
+      <c r="H23" s="32" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="24" spans="5:8">
       <c r="E24" s="2" t="s">
         <v>22</v>
       </c>
@@ -3729,8 +3804,11 @@
       <c r="G24" s="3" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="25" spans="5:7">
+      <c r="H24" s="32" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="25" spans="5:8">
       <c r="E25" s="2" t="s">
         <v>13</v>
       </c>
@@ -3740,8 +3818,11 @@
       <c r="G25" s="3" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="26" spans="5:7">
+      <c r="H25" s="32" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="26" spans="5:8">
       <c r="E26" s="2" t="s">
         <v>13</v>
       </c>
@@ -3751,8 +3832,11 @@
       <c r="G26" s="3" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="27" spans="5:7">
+      <c r="H26" s="32" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="27" spans="5:8">
       <c r="E27" s="2" t="s">
         <v>10</v>
       </c>
@@ -3762,8 +3846,11 @@
       <c r="G27" s="3" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="28" spans="5:7">
+      <c r="H27" s="32" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="28" spans="5:8">
       <c r="E28" s="2" t="s">
         <v>8</v>
       </c>
@@ -3773,8 +3860,11 @@
       <c r="G28" s="3" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="29" spans="5:7">
+      <c r="H28" s="32" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="29" spans="5:8">
       <c r="E29" s="2" t="s">
         <v>10</v>
       </c>
@@ -3784,8 +3874,11 @@
       <c r="G29" s="3" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="30" spans="5:7">
+      <c r="H29" s="32" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="30" spans="5:8">
       <c r="E30" s="2" t="s">
         <v>8</v>
       </c>
@@ -3795,8 +3888,11 @@
       <c r="G30" s="3" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="31" spans="5:7">
+      <c r="H30" s="32" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="31" spans="5:8">
       <c r="E31" s="2" t="s">
         <v>13</v>
       </c>
@@ -3806,8 +3902,11 @@
       <c r="G31" s="3" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="32" spans="5:7">
+      <c r="H31" s="32" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="32" spans="5:8">
       <c r="E32" s="2" t="s">
         <v>22</v>
       </c>
@@ -3817,8 +3916,11 @@
       <c r="G32" s="3" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="33" spans="5:7">
+      <c r="H32" s="32" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="33" spans="5:8">
       <c r="E33" s="2" t="s">
         <v>10</v>
       </c>
@@ -3828,8 +3930,11 @@
       <c r="G33" s="3" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="34" spans="5:7">
+      <c r="H33" s="32" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="34" spans="5:8">
       <c r="E34" s="2" t="s">
         <v>8</v>
       </c>
@@ -3839,8 +3944,11 @@
       <c r="G34" s="3" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="35" spans="5:7">
+      <c r="H34" s="32" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="35" spans="5:8">
       <c r="E35" s="2" t="s">
         <v>5</v>
       </c>
@@ -3850,8 +3958,11 @@
       <c r="G35" s="3" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="36" spans="5:7">
+      <c r="H35" s="32" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="36" spans="5:8">
       <c r="E36" s="2" t="s">
         <v>5</v>
       </c>
@@ -3861,8 +3972,11 @@
       <c r="G36" s="3" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="37" spans="5:7">
+      <c r="H36" s="32" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="37" spans="5:8">
       <c r="E37" s="2" t="s">
         <v>5</v>
       </c>
@@ -3872,8 +3986,11 @@
       <c r="G37" s="3" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="38" spans="5:7">
+      <c r="H37" s="32" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="38" spans="5:8">
       <c r="E38" s="2" t="s">
         <v>5</v>
       </c>
@@ -3883,8 +4000,11 @@
       <c r="G38" s="3" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="39" spans="5:7">
+      <c r="H38" s="32" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="39" spans="5:8">
       <c r="E39" s="2" t="s">
         <v>5</v>
       </c>
@@ -3894,8 +4014,11 @@
       <c r="G39" s="3" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="40" spans="5:7">
+      <c r="H39" s="32" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="40" spans="5:8">
       <c r="E40" s="2" t="s">
         <v>24</v>
       </c>
@@ -3905,8 +4028,11 @@
       <c r="G40" s="3" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="41" spans="5:7">
+      <c r="H40" s="32" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="41" spans="5:8">
       <c r="E41" s="2" t="s">
         <v>5</v>
       </c>
@@ -3916,8 +4042,11 @@
       <c r="G41" s="3" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="42" spans="5:7">
+      <c r="H41" s="32" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="42" spans="5:8">
       <c r="E42" s="2" t="s">
         <v>5</v>
       </c>
@@ -3927,8 +4056,11 @@
       <c r="G42" s="3" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="43" spans="5:7">
+      <c r="H42" s="32" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="43" spans="5:8">
       <c r="E43" s="2" t="s">
         <v>22</v>
       </c>
@@ -3938,8 +4070,11 @@
       <c r="G43" s="3" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="44" spans="5:7">
+      <c r="H43" s="32" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="44" spans="5:8">
       <c r="E44" s="2" t="s">
         <v>24</v>
       </c>
@@ -3949,8 +4084,11 @@
       <c r="G44" s="3" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="45" spans="5:7">
+      <c r="H44" s="32" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="45" spans="5:8">
       <c r="E45" s="2" t="s">
         <v>22</v>
       </c>
@@ -3960,8 +4098,11 @@
       <c r="G45" s="3" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="46" spans="5:7">
+      <c r="H45" s="32" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="46" spans="5:8">
       <c r="E46" s="2" t="s">
         <v>5</v>
       </c>
@@ -3971,8 +4112,11 @@
       <c r="G46" s="3" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="47" spans="5:7">
+      <c r="H46" s="32" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="47" spans="5:8">
       <c r="E47" s="2" t="s">
         <v>64</v>
       </c>
@@ -3982,8 +4126,11 @@
       <c r="G47" s="3" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="48" spans="5:7">
+      <c r="H47" s="32" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="48" spans="5:8">
       <c r="E48" s="2" t="s">
         <v>64</v>
       </c>
@@ -3993,8 +4140,11 @@
       <c r="G48" s="3" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="49" spans="5:7">
+      <c r="H48" s="32" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="49" spans="5:8">
       <c r="E49" s="2" t="s">
         <v>70</v>
       </c>
@@ -4004,8 +4154,11 @@
       <c r="G49" s="3" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="50" spans="5:7">
+      <c r="H49" s="32" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="50" spans="5:8">
       <c r="E50" s="2" t="s">
         <v>22</v>
       </c>
@@ -4016,7 +4169,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="51" spans="5:7">
+    <row r="51" spans="5:8">
       <c r="E51" s="2" t="s">
         <v>117</v>
       </c>
@@ -4027,7 +4180,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="52" spans="5:7">
+    <row r="52" spans="5:8">
       <c r="E52" s="2" t="s">
         <v>119</v>
       </c>
@@ -4038,7 +4191,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="53" spans="5:7">
+    <row r="53" spans="5:8">
       <c r="E53" s="2" t="s">
         <v>119</v>
       </c>
@@ -4049,7 +4202,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="54" spans="5:7">
+    <row r="54" spans="5:8">
       <c r="E54" s="2" t="s">
         <v>119</v>
       </c>
@@ -4060,7 +4213,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="55" spans="5:7">
+    <row r="55" spans="5:8">
       <c r="E55" s="2" t="s">
         <v>119</v>
       </c>
@@ -4071,7 +4224,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="56" spans="5:7">
+    <row r="56" spans="5:8">
       <c r="E56" s="2" t="s">
         <v>119</v>
       </c>
@@ -4082,7 +4235,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="57" spans="5:7">
+    <row r="57" spans="5:8">
       <c r="E57" s="2" t="s">
         <v>119</v>
       </c>
@@ -4093,7 +4246,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="58" spans="5:7">
+    <row r="58" spans="5:8">
       <c r="E58" s="2" t="s">
         <v>22</v>
       </c>
@@ -4139,27 +4292,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="E1" s="15" t="s">
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="E1" s="23" t="s">
         <v>109</v>
       </c>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="I1" s="15" t="s">
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="I1" s="23" t="s">
         <v>125</v>
       </c>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="27" t="s">
         <v>130</v>
       </c>
-      <c r="B2" s="19"/>
+      <c r="B2" s="27"/>
       <c r="C2" s="4" t="s">
         <v>128</v>
       </c>
@@ -4348,10 +4501,10 @@
         <v>310</v>
       </c>
       <c r="H8" s="1"/>
-      <c r="J8" s="22" t="s">
+      <c r="J8" s="15" t="s">
         <v>315</v>
       </c>
-      <c r="K8" s="23" t="s">
+      <c r="K8" s="16" t="s">
         <v>314</v>
       </c>
       <c r="L8" s="1"/>
@@ -4378,7 +4531,7 @@
         <v>101</v>
       </c>
       <c r="H9" s="1"/>
-      <c r="I9" s="23" t="s">
+      <c r="I9" s="16" t="s">
         <v>312</v>
       </c>
       <c r="J9" s="9">
@@ -4413,7 +4566,7 @@
         <v>101</v>
       </c>
       <c r="H10" s="1"/>
-      <c r="I10" s="23" t="s">
+      <c r="I10" s="16" t="s">
         <v>313</v>
       </c>
       <c r="J10" s="9">
@@ -6281,22 +6434,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="20"/>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="E1" s="15" t="s">
+      <c r="A1" s="28"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="E1" s="23" t="s">
         <v>109</v>
       </c>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
       <c r="L1" s="7"/>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="21"/>
-      <c r="B2" s="21"/>
+      <c r="A2" s="29"/>
+      <c r="B2" s="29"/>
       <c r="C2" s="6"/>
       <c r="E2" s="4" t="s">
         <v>126</v>
@@ -6323,11 +6476,11 @@
       <c r="G3" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="I3" s="24"/>
-      <c r="J3" s="25" t="s">
+      <c r="I3" s="17"/>
+      <c r="J3" s="18" t="s">
         <v>315</v>
       </c>
-      <c r="K3" s="26" t="s">
+      <c r="K3" s="19" t="s">
         <v>314</v>
       </c>
       <c r="L3" s="7"/>
@@ -6343,13 +6496,13 @@
       <c r="G4" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="I4" s="27" t="s">
+      <c r="I4" s="20" t="s">
         <v>312</v>
       </c>
-      <c r="J4" s="28">
+      <c r="J4" s="21">
         <v>7</v>
       </c>
-      <c r="K4" s="28">
+      <c r="K4" s="21">
         <v>7</v>
       </c>
       <c r="L4" s="7"/>
@@ -6367,13 +6520,13 @@
       <c r="G5" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="I5" s="29" t="s">
+      <c r="I5" s="22" t="s">
         <v>313</v>
       </c>
-      <c r="J5" s="28">
+      <c r="J5" s="21">
         <v>14</v>
       </c>
-      <c r="K5" s="28">
+      <c r="K5" s="21">
         <v>0</v>
       </c>
       <c r="L5" s="7"/>
@@ -6477,22 +6630,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="20"/>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="E1" s="15" t="s">
+      <c r="A1" s="28"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="E1" s="23" t="s">
         <v>109</v>
       </c>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
       <c r="L1" s="7"/>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="21"/>
-      <c r="B2" s="21"/>
+      <c r="A2" s="29"/>
+      <c r="B2" s="29"/>
       <c r="C2" s="6"/>
       <c r="E2" s="4" t="s">
         <v>126</v>
@@ -6519,11 +6672,11 @@
       <c r="G3" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="I3" s="24"/>
-      <c r="J3" s="25" t="s">
+      <c r="I3" s="17"/>
+      <c r="J3" s="18" t="s">
         <v>315</v>
       </c>
-      <c r="K3" s="26" t="s">
+      <c r="K3" s="19" t="s">
         <v>314</v>
       </c>
       <c r="L3" s="7"/>
@@ -6539,13 +6692,13 @@
       <c r="G4" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="I4" s="27" t="s">
+      <c r="I4" s="20" t="s">
         <v>312</v>
       </c>
-      <c r="J4" s="28">
+      <c r="J4" s="21">
         <v>7</v>
       </c>
-      <c r="K4" s="28">
+      <c r="K4" s="21">
         <v>7</v>
       </c>
       <c r="L4" s="7"/>
@@ -6563,13 +6716,13 @@
       <c r="G5" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="I5" s="29" t="s">
+      <c r="I5" s="22" t="s">
         <v>313</v>
       </c>
-      <c r="J5" s="28">
+      <c r="J5" s="21">
         <v>14</v>
       </c>
-      <c r="K5" s="28">
+      <c r="K5" s="21">
         <v>0</v>
       </c>
       <c r="L5" s="7"/>
@@ -6676,27 +6829,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="E1" s="15" t="s">
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="E1" s="23" t="s">
         <v>109</v>
       </c>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="I1" s="15" t="s">
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="I1" s="23" t="s">
         <v>125</v>
       </c>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="27" t="s">
         <v>130</v>
       </c>
-      <c r="B2" s="19"/>
+      <c r="B2" s="27"/>
       <c r="C2" s="4" t="s">
         <v>128</v>
       </c>
@@ -6819,11 +6972,11 @@
       <c r="G7" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="I7" s="24"/>
-      <c r="J7" s="25" t="s">
+      <c r="I7" s="17"/>
+      <c r="J7" s="18" t="s">
         <v>315</v>
       </c>
-      <c r="K7" s="26" t="s">
+      <c r="K7" s="19" t="s">
         <v>314</v>
       </c>
     </row>
@@ -6846,13 +6999,13 @@
       <c r="G8" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="I8" s="27" t="s">
+      <c r="I8" s="20" t="s">
         <v>312</v>
       </c>
-      <c r="J8" s="28">
+      <c r="J8" s="21">
         <v>52</v>
       </c>
-      <c r="K8" s="28">
+      <c r="K8" s="21">
         <v>46</v>
       </c>
     </row>
@@ -6875,14 +7028,14 @@
       <c r="G9" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="I9" s="29" t="s">
+      <c r="I9" s="22" t="s">
         <v>313</v>
       </c>
-      <c r="J9" s="28">
+      <c r="J9" s="21">
         <f>2*J8</f>
         <v>104</v>
       </c>
-      <c r="K9" s="28">
+      <c r="K9" s="21">
         <v>0</v>
       </c>
     </row>
@@ -7448,25 +7601,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="E1" s="15" t="s">
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="E1" s="23" t="s">
         <v>109</v>
       </c>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="27" t="s">
         <v>130</v>
       </c>
-      <c r="B2" s="19"/>
+      <c r="B2" s="27"/>
       <c r="C2" s="4" t="s">
         <v>128</v>
       </c>
@@ -7522,11 +7675,11 @@
         <v>103</v>
       </c>
       <c r="I4" s="7"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="25" t="s">
+      <c r="J4" s="17"/>
+      <c r="K4" s="18" t="s">
         <v>315</v>
       </c>
-      <c r="L4" s="26" t="s">
+      <c r="L4" s="19" t="s">
         <v>314</v>
       </c>
     </row>
@@ -7548,13 +7701,13 @@
         <v>101</v>
       </c>
       <c r="I5" s="7"/>
-      <c r="J5" s="27" t="s">
+      <c r="J5" s="20" t="s">
         <v>312</v>
       </c>
-      <c r="K5" s="28">
+      <c r="K5" s="21">
         <v>58</v>
       </c>
-      <c r="L5" s="28">
+      <c r="L5" s="21">
         <v>51</v>
       </c>
     </row>
@@ -7576,14 +7729,14 @@
         <v>103</v>
       </c>
       <c r="I6" s="7"/>
-      <c r="J6" s="29" t="s">
+      <c r="J6" s="22" t="s">
         <v>313</v>
       </c>
-      <c r="K6" s="28">
+      <c r="K6" s="21">
         <f>2*K5</f>
         <v>116</v>
       </c>
-      <c r="L6" s="28">
+      <c r="L6" s="21">
         <v>0</v>
       </c>
     </row>
@@ -8261,23 +8414,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="20"/>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="E1" s="15" t="s">
+      <c r="A1" s="28"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="E1" s="23" t="s">
         <v>109</v>
       </c>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
       <c r="L1" s="7"/>
       <c r="M1" s="7"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="21"/>
-      <c r="B2" s="21"/>
+      <c r="A2" s="29"/>
+      <c r="B2" s="29"/>
       <c r="C2" s="6"/>
       <c r="E2" s="4" t="s">
         <v>126</v>
@@ -8322,11 +8475,11 @@
       <c r="G4" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="I4" s="24"/>
-      <c r="J4" s="25" t="s">
+      <c r="I4" s="17"/>
+      <c r="J4" s="18" t="s">
         <v>315</v>
       </c>
-      <c r="K4" s="26" t="s">
+      <c r="K4" s="19" t="s">
         <v>314</v>
       </c>
       <c r="L4" s="7"/>
@@ -8343,13 +8496,13 @@
       <c r="G5" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="I5" s="27" t="s">
+      <c r="I5" s="20" t="s">
         <v>312</v>
       </c>
-      <c r="J5" s="28">
+      <c r="J5" s="21">
         <v>15</v>
       </c>
-      <c r="K5" s="28">
+      <c r="K5" s="21">
         <v>14</v>
       </c>
       <c r="L5" s="7"/>
@@ -8368,13 +8521,13 @@
       <c r="G6" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="I6" s="29" t="s">
+      <c r="I6" s="22" t="s">
         <v>313</v>
       </c>
-      <c r="J6" s="28">
+      <c r="J6" s="21">
         <v>30</v>
       </c>
-      <c r="K6" s="28">
+      <c r="K6" s="21">
         <v>0</v>
       </c>
       <c r="L6" s="7"/>
@@ -8557,26 +8710,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="E1" s="15" t="s">
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="E1" s="23" t="s">
         <v>109</v>
       </c>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
       <c r="L1" s="7"/>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="27" t="s">
         <v>130</v>
       </c>
-      <c r="B2" s="19"/>
+      <c r="B2" s="27"/>
       <c r="C2" s="4" t="s">
         <v>128</v>
       </c>
@@ -8655,11 +8808,11 @@
       <c r="G5" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="I5" s="24"/>
-      <c r="J5" s="25" t="s">
+      <c r="I5" s="17"/>
+      <c r="J5" s="18" t="s">
         <v>315</v>
       </c>
-      <c r="K5" s="26" t="s">
+      <c r="K5" s="19" t="s">
         <v>314</v>
       </c>
       <c r="L5" s="7"/>
@@ -8681,13 +8834,13 @@
       <c r="G6" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="I6" s="27" t="s">
+      <c r="I6" s="20" t="s">
         <v>312</v>
       </c>
-      <c r="J6" s="28">
+      <c r="J6" s="21">
         <v>48</v>
       </c>
-      <c r="K6" s="28">
+      <c r="K6" s="21">
         <v>40</v>
       </c>
       <c r="L6" s="7"/>
@@ -8709,13 +8862,13 @@
       <c r="G7" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="I7" s="29" t="s">
+      <c r="I7" s="22" t="s">
         <v>313</v>
       </c>
-      <c r="J7" s="28">
+      <c r="J7" s="21">
         <v>96</v>
       </c>
-      <c r="K7" s="28">
+      <c r="K7" s="21">
         <v>0</v>
       </c>
       <c r="L7" s="7"/>
